--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32341-d225788-Reviews-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-LAX-Airport-El-Segundo.h118953.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1333 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r590395001-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>32341</t>
+  </si>
+  <si>
+    <t>225788</t>
+  </si>
+  <si>
+    <t>590395001</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Substandard - stuck in the 70s</t>
+  </si>
+  <si>
+    <t>As a TripAdvisor reviewer, I should have known to pay more attention to reviews. I made the mistake of assuming that LAX-area hotels set up for longer stays were pretty much on the same level, and found that this is not the case!
+Our first clue was upon arrival at this property. Okay, there was a sign that said “lobby”... but where was the lobby? Everything was dark - apparently the Extended Stay doesn’t leave the light on for you after hours. My husband finally got out of the car and found a sign that said to call. A light came on, and after-hours agent Glenda came to let us in. Glenda actually proved to be very friendly and helpful, and helped us bring our bags to the room since Extended Stay doesn’t bother to provide luggage carts for their guests. This was not a great start, and we were already exhausted after a long, delayed flight.
+Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the...As a TripAdvisor reviewer, I should have known to pay more attention to reviews. I made the mistake of assuming that LAX-area hotels set up for longer stays were pretty much on the same level, and found that this is not the case!Our first clue was upon arrival at this property. Okay, there was a sign that said “lobby”... but where was the lobby? Everything was dark - apparently the Extended Stay doesn’t leave the light on for you after hours. My husband finally got out of the car and found a sign that said to call. A light came on, and after-hours agent Glenda came to let us in. Glenda actually proved to be very friendly and helpful, and helped us bring our bags to the room since Extended Stay doesn’t bother to provide luggage carts for their guests. This was not a great start, and we were already exhausted after a long, delayed flight.Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the stove burners worked. I’ve included pictures showing the lack of charging ports, the kitchen supplies and the items I had to buy or make myself that the hotel didn’t provide, including a do-not-disturb sign. Really, guys?The following morning, one of the housekeepers advised me not to leave used towels outside our room door, or that would be considered “damage” to hotel property. Gee, it would have been nice to have a sign letting guests know that they should leave their towels in the red bin outside!The whole vibe of this property is not “welcome to our hotel”, but “we’re going to provide as little service as we can get away with, and we don’t trust you not to steal our cheap kitchen stuff”.The one good thing about this stay was the friendliness and helpfulness of a few of the staff members, including Glenda, Tony and Brandy. However, this is not enough for me to consider returning to this property, since there is a nicer and affordable Marriott Towne Place and a Springhill Suites within about a mile of this hotel. Caveat emptor.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>As a TripAdvisor reviewer, I should have known to pay more attention to reviews. I made the mistake of assuming that LAX-area hotels set up for longer stays were pretty much on the same level, and found that this is not the case!
+Our first clue was upon arrival at this property. Okay, there was a sign that said “lobby”... but where was the lobby? Everything was dark - apparently the Extended Stay doesn’t leave the light on for you after hours. My husband finally got out of the car and found a sign that said to call. A light came on, and after-hours agent Glenda came to let us in. Glenda actually proved to be very friendly and helpful, and helped us bring our bags to the room since Extended Stay doesn’t bother to provide luggage carts for their guests. This was not a great start, and we were already exhausted after a long, delayed flight.
+Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the...As a TripAdvisor reviewer, I should have known to pay more attention to reviews. I made the mistake of assuming that LAX-area hotels set up for longer stays were pretty much on the same level, and found that this is not the case!Our first clue was upon arrival at this property. Okay, there was a sign that said “lobby”... but where was the lobby? Everything was dark - apparently the Extended Stay doesn’t leave the light on for you after hours. My husband finally got out of the car and found a sign that said to call. A light came on, and after-hours agent Glenda came to let us in. Glenda actually proved to be very friendly and helpful, and helped us bring our bags to the room since Extended Stay doesn’t bother to provide luggage carts for their guests. This was not a great start, and we were already exhausted after a long, delayed flight.Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the stove burners worked. I’ve included pictures showing the lack of charging ports, the kitchen supplies and the items I had to buy or make myself that the hotel didn’t provide, including a do-not-disturb sign. Really, guys?The following morning, one of the housekeepers advised me not to leave used towels outside our room door, or that would be considered “damage” to hotel property. Gee, it would have been nice to have a sign letting guests know that they should leave their towels in the red bin outside!The whole vibe of this property is not “welcome to our hotel”, but “we’re going to provide as little service as we can get away with, and we don’t trust you not to steal our cheap kitchen stuff”.The one good thing about this stay was the friendliness and helpfulness of a few of the staff members, including Glenda, Tony and Brandy. However, this is not enough for me to consider returning to this property, since there is a nicer and affordable Marriott Towne Place and a Springhill Suites within about a mile of this hotel. Caveat emptor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r562260784-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>562260784</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Rude night shift front desk rep., very disappointed, terrible experience!!!!</t>
+  </si>
+  <si>
+    <t>1. How come this woman can be their front desk rep.? Need to be training otherwise they will lose customers for sure.2. Gave the room with one FULL size bed to my wife and me, are you kidding me???3. The room is smell and not clean, we got itch for 3 days after checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>1. How come this woman can be their front desk rep.? Need to be training otherwise they will lose customers for sure.2. Gave the room with one FULL size bed to my wife and me, are you kidding me???3. The room is smell and not clean, we got itch for 3 days after checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r547783647-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>547783647</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Not recommended because of poor wifi, smoking neighbors, and no breakfast</t>
+  </si>
+  <si>
+    <t>The ladies at the front desk are great, but the accommodations here are very poor if you plan to stay for more than several days. First reason, the wifi is extremely bad. My phone and tablet could never connect to it. I even paid for the upgrade, and there was no improvement. Second reason, the no-smoking rule is very poorly enforced. My neighbor in the next room smoked. He regularly stood in the doorway smoking, and there were cigarette butts on the sidewalk outside his door. I even called it in to report it. They said they would take care of it, but he continued to smoke. The neighbor next to him also smoked. I saw them while they were standing in the hallway. This meant that I had to turn on the AC, which is a horrible waste of power in November &amp; December, but if I left my windows open, my room would smell of cigarette smoke. And the third reason is that the establishment offers breakfast, but in the last 1-2 weeks of the month, they run out of breakfast items (granola bars, oatmeal, muffins) and don't restock their inventory until the next month. Even if you are there first thing in the morning at 6am, they are clean out and only have coffee available. While the people who work here are friendly and I'm grateful that the establishment is pet friendly, I recommend staying somewhere else--especially...The ladies at the front desk are great, but the accommodations here are very poor if you plan to stay for more than several days. First reason, the wifi is extremely bad. My phone and tablet could never connect to it. I even paid for the upgrade, and there was no improvement. Second reason, the no-smoking rule is very poorly enforced. My neighbor in the next room smoked. He regularly stood in the doorway smoking, and there were cigarette butts on the sidewalk outside his door. I even called it in to report it. They said they would take care of it, but he continued to smoke. The neighbor next to him also smoked. I saw them while they were standing in the hallway. This meant that I had to turn on the AC, which is a horrible waste of power in November &amp; December, but if I left my windows open, my room would smell of cigarette smoke. And the third reason is that the establishment offers breakfast, but in the last 1-2 weeks of the month, they run out of breakfast items (granola bars, oatmeal, muffins) and don't restock their inventory until the next month. Even if you are there first thing in the morning at 6am, they are clean out and only have coffee available. While the people who work here are friendly and I'm grateful that the establishment is pet friendly, I recommend staying somewhere else--especially if it needs to be an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>The ladies at the front desk are great, but the accommodations here are very poor if you plan to stay for more than several days. First reason, the wifi is extremely bad. My phone and tablet could never connect to it. I even paid for the upgrade, and there was no improvement. Second reason, the no-smoking rule is very poorly enforced. My neighbor in the next room smoked. He regularly stood in the doorway smoking, and there were cigarette butts on the sidewalk outside his door. I even called it in to report it. They said they would take care of it, but he continued to smoke. The neighbor next to him also smoked. I saw them while they were standing in the hallway. This meant that I had to turn on the AC, which is a horrible waste of power in November &amp; December, but if I left my windows open, my room would smell of cigarette smoke. And the third reason is that the establishment offers breakfast, but in the last 1-2 weeks of the month, they run out of breakfast items (granola bars, oatmeal, muffins) and don't restock their inventory until the next month. Even if you are there first thing in the morning at 6am, they are clean out and only have coffee available. While the people who work here are friendly and I'm grateful that the establishment is pet friendly, I recommend staying somewhere else--especially...The ladies at the front desk are great, but the accommodations here are very poor if you plan to stay for more than several days. First reason, the wifi is extremely bad. My phone and tablet could never connect to it. I even paid for the upgrade, and there was no improvement. Second reason, the no-smoking rule is very poorly enforced. My neighbor in the next room smoked. He regularly stood in the doorway smoking, and there were cigarette butts on the sidewalk outside his door. I even called it in to report it. They said they would take care of it, but he continued to smoke. The neighbor next to him also smoked. I saw them while they were standing in the hallway. This meant that I had to turn on the AC, which is a horrible waste of power in November &amp; December, but if I left my windows open, my room would smell of cigarette smoke. And the third reason is that the establishment offers breakfast, but in the last 1-2 weeks of the month, they run out of breakfast items (granola bars, oatmeal, muffins) and don't restock their inventory until the next month. Even if you are there first thing in the morning at 6am, they are clean out and only have coffee available. While the people who work here are friendly and I'm grateful that the establishment is pet friendly, I recommend staying somewhere else--especially if it needs to be an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r534824261-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>534824261</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Stayed in 1 night. Close to LAX with many food choice around. A simple basic double room with some basic kitchenette, nothing much to complaint as i was check in late at the night and checkout early in the morning. Wifi service is poor.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded October 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2017</t>
+  </si>
+  <si>
+    <t>Stayed in 1 night. Close to LAX with many food choice around. A simple basic double room with some basic kitchenette, nothing much to complaint as i was check in late at the night and checkout early in the morning. Wifi service is poor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r529242710-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>529242710</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Great, location &amp; excellent customer service.</t>
+  </si>
+  <si>
+    <t>I love Extended Stay Hotels in general, but this location was the most convenient. There is a Ralphs grocery store, Starbucks &amp; Chase bank right across the parking lot, Several places to eat across the street, The front desk, Maricella &amp; Seth the GM, were great.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>I love Extended Stay Hotels in general, but this location was the most convenient. There is a Ralphs grocery store, Starbucks &amp; Chase bank right across the parking lot, Several places to eat across the street, The front desk, Maricella &amp; Seth the GM, were great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r523620336-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>523620336</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Oh boy, where to begin...</t>
+  </si>
+  <si>
+    <t>I'll be brief since we only stayed one night.  First off, it's an "extended stay" with a kitchen with absolutely no amenities. They say to call and get what you need but why and how do I know what I need. Here is not a coffee pot or coffee cups, so I had to get that, then somewhere along the way I realized I needed some silverware and drinking cups, a blanket, sheets for the pull out... the list goes on. Also, while we're at it, the pull out: oh my goodness!! It's a no.. very dirty but we had to use it since we had our 18 year old son with us... that was the brief review. All I can say is go somewhere else. There is a nice comfort suites not far away - go there... one more thing, wifi is awfulMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>I'll be brief since we only stayed one night.  First off, it's an "extended stay" with a kitchen with absolutely no amenities. They say to call and get what you need but why and how do I know what I need. Here is not a coffee pot or coffee cups, so I had to get that, then somewhere along the way I realized I needed some silverware and drinking cups, a blanket, sheets for the pull out... the list goes on. Also, while we're at it, the pull out: oh my goodness!! It's a no.. very dirty but we had to use it since we had our 18 year old son with us... that was the brief review. All I can say is go somewhere else. There is a nice comfort suites not far away - go there... one more thing, wifi is awfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r510379256-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>510379256</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>dont book here</t>
+  </si>
+  <si>
+    <t>If you are seeing this to book and impressed by the pictures on the website. They are not what you will get in the El Segundo location!  It is filthy!  It is close to LAX but not worth the money! If I hadn't have been exhausted from an international flight I would have gone to another place!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>If you are seeing this to book and impressed by the pictures on the website. They are not what you will get in the El Segundo location!  It is filthy!  It is close to LAX but not worth the money! If I hadn't have been exhausted from an international flight I would have gone to another place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r509754101-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>509754101</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Poor customer service</t>
+  </si>
+  <si>
+    <t>Customer service is very poor. Room were clean but had smell in it. Front seat staff is not at all helpful and is rude. They say breakfast is included but they only provide muffins. There is kotheing else for breakfast. Would never like to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Customer service is very poor. Room were clean but had smell in it. Front seat staff is not at all helpful and is rude. They say breakfast is included but they only provide muffins. There is kotheing else for breakfast. Would never like to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r509610945-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>509610945</t>
+  </si>
+  <si>
+    <t>Quiet pleasant hotel near LAX</t>
+  </si>
+  <si>
+    <t>I stayed here for about 5 days with my wife.  Nice quiet hotel, no discernible airport noise, pleasant staff, reasonably clean.  plenty of parking and right next to 2 starbucks a ralph's and a chase atm.  wtf else do you need?We chose this because they allow smoking in some rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for about 5 days with my wife.  Nice quiet hotel, no discernible airport noise, pleasant staff, reasonably clean.  plenty of parking and right next to 2 starbucks a ralph's and a chase atm.  wtf else do you need?We chose this because they allow smoking in some rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r499825213-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>499825213</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>rooms are terrible</t>
+  </si>
+  <si>
+    <t>the room was filthy with toys from previous guests laying under the bed. it had hairs and had stains all over the bed. the room had no utensils. Generally ESA provides the utensils in the room. the only thing pleasant was the lady at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>the room was filthy with toys from previous guests laying under the bed. it had hairs and had stains all over the bed. the room had no utensils. Generally ESA provides the utensils in the room. the only thing pleasant was the lady at the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r497245717-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>497245717</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Can very well become one of my preferred hotels in L.A., but there are several flaws.</t>
+  </si>
+  <si>
+    <t>I actually liked the Extended Stay America quite a bit. I mostly liked it for the location. You can walk to several restaurants including an In-N-Out, and there's a Ralph's nearby. The room we got is a basic studio. The kitchen is a nice place to sit, the shower is good, and the bed is comfortable. The sofa bed has a weird plastic case on it, and did not come with the sheets; I had to ask for them the second night.So there are several flaws with the hotel I want to point out. If they can fix those flaws, then this will be a perfect extended stay hotel. Flaw #1: The WiFi is a bit slow. It could use some boosting. Flaw #2: I wish they'd have the coffee during breakfast 24/7. Flaw #3: The breakfast is garbage. Only a few muffins in plastic. Flaw #4: The bathroom door lock in my room was broken. I don't remember the room number, but it's on the main building, is the first floor, is near the west stairs, and faces south. Fix all that, and we're golden.Yes, I think this is a great hotel. It's more than I expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2017</t>
+  </si>
+  <si>
+    <t>I actually liked the Extended Stay America quite a bit. I mostly liked it for the location. You can walk to several restaurants including an In-N-Out, and there's a Ralph's nearby. The room we got is a basic studio. The kitchen is a nice place to sit, the shower is good, and the bed is comfortable. The sofa bed has a weird plastic case on it, and did not come with the sheets; I had to ask for them the second night.So there are several flaws with the hotel I want to point out. If they can fix those flaws, then this will be a perfect extended stay hotel. Flaw #1: The WiFi is a bit slow. It could use some boosting. Flaw #2: I wish they'd have the coffee during breakfast 24/7. Flaw #3: The breakfast is garbage. Only a few muffins in plastic. Flaw #4: The bathroom door lock in my room was broken. I don't remember the room number, but it's on the main building, is the first floor, is near the west stairs, and faces south. Fix all that, and we're golden.Yes, I think this is a great hotel. It's more than I expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r495262392-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>495262392</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America El Segundo</t>
+  </si>
+  <si>
+    <t>Extended Stay America El Segundo is an exceptional Stay in LA. They consistently cater and satisfy my needs whenever I'm there. My first pick for stays around LAX.  10/10 Extended Stay America El Segundo MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America El Segundo is an exceptional Stay in LA. They consistently cater and satisfy my needs whenever I'm there. My first pick for stays around LAX.  10/10 Extended Stay America El Segundo More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r490233975-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>490233975</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Room was Fine, Breakfast Barely Counts as Breakfast</t>
+  </si>
+  <si>
+    <t>The room was ok. It had a small kitchenette. I had to ask for pots, pans, and dishes. They didn't tell me this when I checked in so, for the first few weeks, I just didn't use the kitchenette. It would have been nice if they told me at check-in that these items were available for the asking. I saw someone even had a toaster so maybe I could have asked for a toaster too??The "breakfast" barely counted as food. It consisted of oatmeal, granola bar, and coffee. I had to go to the office every day to see if I got mail. It would be nice if they lit the light on your phone to tell you that you have mail.The smoke detector was broken and they never fixed it the entire time that I was there. I gave up complaining about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2017</t>
+  </si>
+  <si>
+    <t>The room was ok. It had a small kitchenette. I had to ask for pots, pans, and dishes. They didn't tell me this when I checked in so, for the first few weeks, I just didn't use the kitchenette. It would have been nice if they told me at check-in that these items were available for the asking. I saw someone even had a toaster so maybe I could have asked for a toaster too??The "breakfast" barely counted as food. It consisted of oatmeal, granola bar, and coffee. I had to go to the office every day to see if I got mail. It would be nice if they lit the light on your phone to tell you that you have mail.The smoke detector was broken and they never fixed it the entire time that I was there. I gave up complaining about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r486714684-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>486714684</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel and close to airport</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 2 days before my flight out of LAX. Have a super market and multiple food joints near by. Its quite far from most of the attractions if you are planning to go out. The room was quite old but was clean and didnt have any issues. Staff were very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 2 days before my flight out of LAX. Have a super market and multiple food joints near by. Its quite far from most of the attractions if you are planning to go out. The room was quite old but was clean and didnt have any issues. Staff were very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r476970167-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>476970167</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>nice hotel great location</t>
+  </si>
+  <si>
+    <t>this hotel has it all, nice rooms that feel homey, kitchen in room, location nearLAX the beach great shopping and restaurants and clubs. Lots of privacy and quiet location. Great TV selection outstanding clean property and fabulous staff. You can bring your dog here. Not many hotels where you can do that !MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>this hotel has it all, nice rooms that feel homey, kitchen in room, location nearLAX the beach great shopping and restaurants and clubs. Lots of privacy and quiet location. Great TV selection outstanding clean property and fabulous staff. You can bring your dog here. Not many hotels where you can do that !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r446940201-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>446940201</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Room for Improvement</t>
+  </si>
+  <si>
+    <t>I lived here for some time. There are some advantages, mainly location and towel/linen service.  The are some big cons which unfortunately outweigh the positives.  The main disadvantage is the rude manager Seth.  Advantage:  the super nice and efficient assistant manager Daisy.  Disadvantage:  Rooms are NOT cleaned well.  Advantage:  the maintenance man Juan is quite competent and efficient (speak to him directly if you really need something done in your room).  Disadvantage: If you complain about anything they increase your room rate.  If you sign up for two months in a row and pay up front, they will lock in a particular rate for you.  Disadvantage:  Police are often called to the premises for "domestic disputes" or drug deals or vandalism.  My friend came to visit on night and her car was viciously keyed all the way around.  Disadvantage:  Cigarette SMOKE:  supposedly they have designated Building #3 for smokers but they allow smokers to freely smoke everywhere on the premises.  This sucks big time as that smoke enters non-smokers rooms with abandon.  Management's response:  Too bad!  I wound up complaining to the City Council who told me to call the police when this happened.  This did not make me very popular as you can imagine and I had to move out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>I lived here for some time. There are some advantages, mainly location and towel/linen service.  The are some big cons which unfortunately outweigh the positives.  The main disadvantage is the rude manager Seth.  Advantage:  the super nice and efficient assistant manager Daisy.  Disadvantage:  Rooms are NOT cleaned well.  Advantage:  the maintenance man Juan is quite competent and efficient (speak to him directly if you really need something done in your room).  Disadvantage: If you complain about anything they increase your room rate.  If you sign up for two months in a row and pay up front, they will lock in a particular rate for you.  Disadvantage:  Police are often called to the premises for "domestic disputes" or drug deals or vandalism.  My friend came to visit on night and her car was viciously keyed all the way around.  Disadvantage:  Cigarette SMOKE:  supposedly they have designated Building #3 for smokers but they allow smokers to freely smoke everywhere on the premises.  This sucks big time as that smoke enters non-smokers rooms with abandon.  Management's response:  Too bad!  I wound up complaining to the City Council who told me to call the police when this happened.  This did not make me very popular as you can imagine and I had to move out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r446014411-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>446014411</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good </t>
+  </si>
+  <si>
+    <t>We stay here for 2 days in november. It's Clean and have parking inside. Very near to LA airport. Large room with kitchen and table for lunch or dinner. In the hall in the morning coffee and snack for breakfast. Pet friendly. Good MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay here for 2 days in november. It's Clean and have parking inside. Very near to LA airport. Large room with kitchen and table for lunch or dinner. In the hall in the morning coffee and snack for breakfast. Pet friendly. Good More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r435740864-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>435740864</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Gets the job done in El Segundo</t>
+  </si>
+  <si>
+    <t>I have stayed here twice now and its always been a solid experience: clean rooms with kitchens, free parking, free internet, and right next door to a supermarket and Starbucks.  Fast food and other options are across the street.  I noticed that the reception desk closes at 11pm, so I'm unsure as to how ate check ins work.  In any event, the property is easy access to freeways, LAX, and not too far from beaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here twice now and its always been a solid experience: clean rooms with kitchens, free parking, free internet, and right next door to a supermarket and Starbucks.  Fast food and other options are across the street.  I noticed that the reception desk closes at 11pm, so I'm unsure as to how ate check ins work.  In any event, the property is easy access to freeways, LAX, and not too far from beaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r412919787-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>412919787</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Breakfast??</t>
+  </si>
+  <si>
+    <t>Room was clean and was in a good area. Close to LAX. Good hotel and area for the price. But advertise Breakfast included?? Not even continental breakfast. Coffee and granola bar. I was expecting at least a boiled egg or a bagel. When I asked I was dismissed. The staff was lacking personality. But all in all it was a good stay. There are plenty of restaurants in the area for any meals. Starbucks and In and Out within walking distance. Grocery store next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Room was clean and was in a good area. Close to LAX. Good hotel and area for the price. But advertise Breakfast included?? Not even continental breakfast. Coffee and granola bar. I was expecting at least a boiled egg or a bagel. When I asked I was dismissed. The staff was lacking personality. But all in all it was a good stay. There are plenty of restaurants in the area for any meals. Starbucks and In and Out within walking distance. Grocery store next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r406785959-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>406785959</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>So Frustrating</t>
+  </si>
+  <si>
+    <t>I was traveling with my elderly mother and booked a room 2 weeks in advance - disabled accessible, 2 beds, smoking allowed.We got to the hotel and were told that the room we reserved wasn't available, that we were being given a nonsmoking room with one bed on the second floor (no elevator). But, the lady behind the desk said, there was a pull-out sofa. So I had the pleasure of sleeping on the most uncomfortable bed-type-thing known to man and carting heavy luggage up and down stairs. My back was a wreck for a week. I had booked the room at a 20% discount but the bill the staff person handed me to sign when we checked in was for full price. I pointed this out to the lady and she said the discount would be taken off at check out. It would be nice if she'd told me that before asking me to sign. Then when we got to our room there were none of the kitchen amenities advertised. The refrigerator was off and there were no plates, pots, pans, utensils, coffee maker, etc. All that said, the room was clean, the AC/heating worked and the window opened all the way.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>I was traveling with my elderly mother and booked a room 2 weeks in advance - disabled accessible, 2 beds, smoking allowed.We got to the hotel and were told that the room we reserved wasn't available, that we were being given a nonsmoking room with one bed on the second floor (no elevator). But, the lady behind the desk said, there was a pull-out sofa. So I had the pleasure of sleeping on the most uncomfortable bed-type-thing known to man and carting heavy luggage up and down stairs. My back was a wreck for a week. I had booked the room at a 20% discount but the bill the staff person handed me to sign when we checked in was for full price. I pointed this out to the lady and she said the discount would be taken off at check out. It would be nice if she'd told me that before asking me to sign. Then when we got to our room there were none of the kitchen amenities advertised. The refrigerator was off and there were no plates, pots, pans, utensils, coffee maker, etc. All that said, the room was clean, the AC/heating worked and the window opened all the way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r403215073-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>403215073</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Clean and Quiet</t>
+  </si>
+  <si>
+    <t>Missed our connection at LAX due to the Delta debacle, hotels were selling out fast, close to airport, room was clean, bed was comfy, grab and go breakfast not fancy but adequate, good coffee and staff very nice. Constuction right outside my building but I never heard it, 24 hour store within walking distance, I would stay here again in a pinch. No coffee maker in rooms so that was a bummer but overall good stay for one night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r389098131-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>389098131</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>over rated</t>
+  </si>
+  <si>
+    <t>will not stay there again vehicles allowed to back into parking stalls so when they start the car exhaust goes into room threw air conditioner air vent or the one inch gap below door. the carpets are the worst i have ever seen feet sticking to floor and walking right out of them white socks no longer white. house keeping needs to go to training they are better off just giving you cleaning cart. Dishes given to me to use still had food stuck to them so much more to say but wont.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r382750734-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>382750734</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Great Value without sacrificing convenience and comfort</t>
+  </si>
+  <si>
+    <t>*Great front desk staff*Quiet property in spite of being located at busy intersection *Comfortable and fully stocked rooms *the value we received far exceeded the cost, would definitely stay here again....MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>*Great front desk staff*Quiet property in spite of being located at busy intersection *Comfortable and fully stocked rooms *the value we received far exceeded the cost, would definitely stay here again....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r382555850-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>382555850</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>2 stars hotel</t>
+  </si>
+  <si>
+    <t>The man at desk was not in a good mood and not helpful.  I had to ask for everything. He set us up beside a room with a barking pet.  Went back to lobby and a lady changed my room. Next day, no water because of maintenance so this is how I found out the maid service was only once a week and changing towels needed to be done at lobby.  It was mentioned free parking, free internet, free breakfast. Lobby is very small and coffee (with coffee mate !!!) is set up on a small table with small greasy pre-packaged muffins.  This is NOT breakfast it is complimentary snack and coffee. A few days later we had a note on our door indicating that the hotel now charges a fee of 15$ per night for parking.  We left the next day and I showed my reservation paper and the lady at the desk did not charge me.  I was charged almost 4$ for 3 local phone calls.   The rooms are small but clean and efficient enough,  good if you are around to sleep only. A grocery store was right by so that was also good.  Wi-fi was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>The man at desk was not in a good mood and not helpful.  I had to ask for everything. He set us up beside a room with a barking pet.  Went back to lobby and a lady changed my room. Next day, no water because of maintenance so this is how I found out the maid service was only once a week and changing towels needed to be done at lobby.  It was mentioned free parking, free internet, free breakfast. Lobby is very small and coffee (with coffee mate !!!) is set up on a small table with small greasy pre-packaged muffins.  This is NOT breakfast it is complimentary snack and coffee. A few days later we had a note on our door indicating that the hotel now charges a fee of 15$ per night for parking.  We left the next day and I showed my reservation paper and the lady at the desk did not charge me.  I was charged almost 4$ for 3 local phone calls.   The rooms are small but clean and efficient enough,  good if you are around to sleep only. A grocery store was right by so that was also good.  Wi-fi was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r371315333-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>371315333</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Not a good place to stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights this past week - our bed sheets were dirty, there was someone else's hair in the shower and food in the refrigerator. We were given no shampoo or conditioner or body wash and on our second day a maid never entered our room so we were given no clean towels. They also advertised this fabulous continental breakfast and when we arrived for breakfast there was only one package of oatmeal, packaged muffins and some moldy looking oranges. Very dissatisfied with our visit. We truly believe that our room was not cleaned before we entered it and we will never return nor will we ever let someone we know stay at the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights this past week - our bed sheets were dirty, there was someone else's hair in the shower and food in the refrigerator. We were given no shampoo or conditioner or body wash and on our second day a maid never entered our room so we were given no clean towels. They also advertised this fabulous continental breakfast and when we arrived for breakfast there was only one package of oatmeal, packaged muffins and some moldy looking oranges. Very dissatisfied with our visit. We truly believe that our room was not cleaned before we entered it and we will never return nor will we ever let someone we know stay at the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r366705837-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>366705837</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean but minimal </t>
+  </si>
+  <si>
+    <t>This hotel was very clean, but it only had the bare minimum. The free breakfast consisted of instant oatmeal and cereal bars only. The location was nice because of a grocery store and in-n-out within walking distance. The staff was friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was very clean, but it only had the bare minimum. The free breakfast consisted of instant oatmeal and cereal bars only. The location was nice because of a grocery store and in-n-out within walking distance. The staff was friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r365281352-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>365281352</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>A decent location near LAX</t>
+  </si>
+  <si>
+    <t>The location itself was great, as it was near a supermarket, a number of eateries, and a Starbucks.  They were all within a five minute walking distance.  The room itself was clean, well maintained, and though I only stayed a night, it seemed like an extended stay here would be sensible.  The kitchen had two burners and a microwave, as well as a decent refrigerator. The bathroom was relatively spacious, though the water pressure in the shower was weak.  The staff, though courteous, were not often available and were at times, difficult to locate.  Though they offered continental breakfast, it's nothing more than some fruit, granola bars, and coffee.  The "free wifi" they offered was very slow, and if you wish to skype, use viber, or for even average internet speed usage, you're prompted to upgrade to a paid wifi." Overall, not a bad place that was booked from Priceline; close enough to LAX ($20 by taxi to get there, approximately $11 to get back to the airport), and in a decent location with many stores and shops.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>The location itself was great, as it was near a supermarket, a number of eateries, and a Starbucks.  They were all within a five minute walking distance.  The room itself was clean, well maintained, and though I only stayed a night, it seemed like an extended stay here would be sensible.  The kitchen had two burners and a microwave, as well as a decent refrigerator. The bathroom was relatively spacious, though the water pressure in the shower was weak.  The staff, though courteous, were not often available and were at times, difficult to locate.  Though they offered continental breakfast, it's nothing more than some fruit, granola bars, and coffee.  The "free wifi" they offered was very slow, and if you wish to skype, use viber, or for even average internet speed usage, you're prompted to upgrade to a paid wifi." Overall, not a bad place that was booked from Priceline; close enough to LAX ($20 by taxi to get there, approximately $11 to get back to the airport), and in a decent location with many stores and shops.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r347522663-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>347522663</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Disappointing. Good location, but little other reason to stay</t>
+  </si>
+  <si>
+    <t>The location in El Segundo right off the 105 freeway is convenient. Not far from the beach, either. And there's free parking, a rarity in the LA area now.However, our room (a Queen non-smoking room) was small, smelled strange (probably from a chemical used to mask a previous smoker), and although it was a suite with a kitchenette, it had absolutely NO utensils of any kind: not even a cup to drink water from. Absolutely nothing. You need to ask the front desk for everything, and she seemed constantly overwhelmed as there was only one staff member to do everything. The iron stained our clothes as well. And it's not a cheap place to stay: not really a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>The location in El Segundo right off the 105 freeway is convenient. Not far from the beach, either. And there's free parking, a rarity in the LA area now.However, our room (a Queen non-smoking room) was small, smelled strange (probably from a chemical used to mask a previous smoker), and although it was a suite with a kitchenette, it had absolutely NO utensils of any kind: not even a cup to drink water from. Absolutely nothing. You need to ask the front desk for everything, and she seemed constantly overwhelmed as there was only one staff member to do everything. The iron stained our clothes as well. And it's not a cheap place to stay: not really a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r346008570-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>346008570</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Close to Airport</t>
+  </si>
+  <si>
+    <t>Extended stay is five minute drive to LAX. Tidy little rooms with full fridge, kitchenette , microwave and kitchen utensils on request. It is beside Ralph's supermarket and has bank Starbucks and may eateries within 5 minute walk excellent location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Extended stay is five minute drive to LAX. Tidy little rooms with full fridge, kitchenette , microwave and kitchen utensils on request. It is beside Ralph's supermarket and has bank Starbucks and may eateries within 5 minute walk excellent location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r344641311-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>344641311</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Just an "ok" stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel has no outstanding qualities. Cleaning Service is weekly for extended stays. Cheap for the area. The best thing is that it's within walking distance of grocery and restaurants. It's located in a very safe location. Parking is adequate. Rooms are clean. I would stay again if only for the rates. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r320528398-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>320528398</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Not recommended</t>
+  </si>
+  <si>
+    <t>Two couples booked here for an overnight prior to flying home to Australia and used a consolidator site. Beds were like bricks, continental breakfast is a joke, our hairdryer did not work and our friends' toilet overflowed. Cleaners told them the plumbing had been a problem for weeks. Told us to go to the other site if we wanted any action, Extended Stay only offered a discount voucher for a future stay! Oh really, like we would stay there again. I understand these things happen but the clearly knew of the problems. If customer service mattered to ES surely they would initiate the refund. Stairs were filthy, with cigarette butts everywhere. Not nice, don't stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Two couples booked here for an overnight prior to flying home to Australia and used a consolidator site. Beds were like bricks, continental breakfast is a joke, our hairdryer did not work and our friends' toilet overflowed. Cleaners told them the plumbing had been a problem for weeks. Told us to go to the other site if we wanted any action, Extended Stay only offered a discount voucher for a future stay! Oh really, like we would stay there again. I understand these things happen but the clearly knew of the problems. If customer service mattered to ES surely they would initiate the refund. Stairs were filthy, with cigarette butts everywhere. Not nice, don't stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r308622654-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>308622654</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>rooms where updated, but more work needs to be done.  Smell of old smoke</t>
+  </si>
+  <si>
+    <t>First off the location of the hotel is great.  There is plenty of parking and it is close to grocery stores, etc. The front desk staff was friendly and polite.It looks like they have some a few updates.  New paint, new flooring. which is where the good stops.There was a very en-grained smell of old cigarette smoke. It was a little musty in the room which made the smell stronger.  I think it was coming from the curtains. The bed was very uncomfortable, one of the worst mattresses i have slept on in years. The grout around the tub was filthy and was peeling away. the tub itself needs to be redone - all of the porcelean wrapping was peeling off and there is no way someone would want to take a bath in that tub.Over all, not the worst by any means, but I will look for a different place next time I am in El Segundo.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>First off the location of the hotel is great.  There is plenty of parking and it is close to grocery stores, etc. The front desk staff was friendly and polite.It looks like they have some a few updates.  New paint, new flooring. which is where the good stops.There was a very en-grained smell of old cigarette smoke. It was a little musty in the room which made the smell stronger.  I think it was coming from the curtains. The bed was very uncomfortable, one of the worst mattresses i have slept on in years. The grout around the tub was filthy and was peeling away. the tub itself needs to be redone - all of the porcelean wrapping was peeling off and there is no way someone would want to take a bath in that tub.Over all, not the worst by any means, but I will look for a different place next time I am in El Segundo.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r303049297-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>303049297</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend  getaway. </t>
+  </si>
+  <si>
+    <t>Nice and clean . Service is excellent and Starbucks  , Ralphs  &amp; the Train Station  very  close to walk by . If you need ectra item you just call and go to the FrontDesk to pick up . No too far from LAX Airport  .MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Nice and clean . Service is excellent and Starbucks  , Ralphs  &amp; the Train Station  very  close to walk by . If you need ectra item you just call and go to the FrontDesk to pick up . No too far from LAX Airport  .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r282359184-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>282359184</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Will NOT return</t>
+  </si>
+  <si>
+    <t>The room had a smell to it and the room was NOT UP TO PAR. it was still dirty, the stove and the. Refrigerator  were NOT clean. So NOOOOOOOOOOOOOO I WILL NOT RETURN TO THIS PLACE AGAIN, THANK YOU have a nice dayMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>The room had a smell to it and the room was NOT UP TO PAR. it was still dirty, the stove and the. Refrigerator  were NOT clean. So NOOOOOOOOOOOOOO I WILL NOT RETURN TO THIS PLACE AGAIN, THANK YOU have a nice dayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r275186008-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>275186008</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Served its purpose</t>
+  </si>
+  <si>
+    <t>We stayed here while working at the refinery. Overall the stay was okay. You have to make an appointment to have your room cleaned if you work nights. You have to ask for towels and anything else you need. They have a nice laundry facility. Grocery store next door provides convenience. Beware if you check out before your extended stay is up you will be assessed a different rate. Rates are a lot higher being so close to the airport. Will eat up your full per diem check. Was scared one night by large man in suit and large man in dress with lots of wild make-up and huge wig. Co-workers saw them on different nights also. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here while working at the refinery. Overall the stay was okay. You have to make an appointment to have your room cleaned if you work nights. You have to ask for towels and anything else you need. They have a nice laundry facility. Grocery store next door provides convenience. Beware if you check out before your extended stay is up you will be assessed a different rate. Rates are a lot higher being so close to the airport. Will eat up your full per diem check. Was scared one night by large man in suit and large man in dress with lots of wild make-up and huge wig. Co-workers saw them on different nights also. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r270257070-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>270257070</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Good price, good quality</t>
+  </si>
+  <si>
+    <t>The room was clean and looked fairly updated. Nothing super fancy, but the bed and furniture was comfortable enough. I did not have a problem with noise. The mini-kitchen and refrigerator were especially useful features given that the hotel is next door to a grocery store. This place is great for the cost-conscious traveler who wants a decent, no-frills hotel stay close to LAX. The only thing I wish it had was a shuttle service to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>The room was clean and looked fairly updated. Nothing super fancy, but the bed and furniture was comfortable enough. I did not have a problem with noise. The mini-kitchen and refrigerator were especially useful features given that the hotel is next door to a grocery store. This place is great for the cost-conscious traveler who wants a decent, no-frills hotel stay close to LAX. The only thing I wish it had was a shuttle service to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r259007909-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>259007909</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Convenient to LAX</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay if you want to be near the airport.  We recently had to catch an early morning flight to Hawaii and this was quite convenient and clean.  After taking a free shuttle, we hopped on a bus for $1.75 which took us right to this hotel.  There is even a super market you can walk to (right next door).  All in all, it made for an easy overnight stay.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r255893587-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>255893587</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Bad experience!!!</t>
+  </si>
+  <si>
+    <t>We booked our stay in Los Angeles in this hotel. We got a good deal so we decided to stay in it. The room was clean but smelled bad. The microwave was dirty and smelled really really bad!! Towels were obviously very old and not clean enough. I think they told their staff not to smile or to greet any guest but they were helpful. My 10 old son slept on the floor in the first night as they didn't have cribs and got one next day so you might need call and reserve one before. The bath tube is dusty and not clean. the bed was not comfy and make noise with any small movement on bed which was very annoying for us and the baby as well. Free internet and parking.Will not stay again and wouldn't recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked our stay in Los Angeles in this hotel. We got a good deal so we decided to stay in it. The room was clean but smelled bad. The microwave was dirty and smelled really really bad!! Towels were obviously very old and not clean enough. I think they told their staff not to smile or to greet any guest but they were helpful. My 10 old son slept on the floor in the first night as they didn't have cribs and got one next day so you might need call and reserve one before. The bath tube is dusty and not clean. the bed was not comfy and make noise with any small movement on bed which was very annoying for us and the baby as well. Free internet and parking.Will not stay again and wouldn't recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r244746391-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>244746391</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>Hotel has been remodeled</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel while traveling numerous times over the years. It has been recently remodeled and the rooms are clean and comfortable. Close to Los Angeles International airport, many restaurants close by and a super market right next door. Desk staff very helpful and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel while traveling numerous times over the years. It has been recently remodeled and the rooms are clean and comfortable. Close to Los Angeles International airport, many restaurants close by and a super market right next door. Desk staff very helpful and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r231023175-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>231023175</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>convenient and good price</t>
+  </si>
+  <si>
+    <t>We had two nights here as elsewhere in L.A overpriced. With a hire car, it was easy access to the airport and beaches and malls. Rooms are small but modern and clean. Supermarket next door open 24hrs and plenty of eateries nearby. Guest laundry on site, free parking, internet free and good connection. Staff helpful except we had noisy neighbours who left their TV on all night and upon calling reception at 3.00 a.m there was no manager on site so nothing could be done. Rooms could benefit from better lighting.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r221606509-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>221606509</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>very enjoyable</t>
+  </si>
+  <si>
+    <t>the staff is very considerate and helpful. there is food outlets is walking distance, and a grocery store right outside the parking lot. the beach is very close and very nice. and you can walk two blocks to a shuttle to go to the beach only 10 minutes away. and the weather is great at this time a year. 75 during the day and 65 during the night.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r221398348-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>221398348</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Good for short stays too</t>
+  </si>
+  <si>
+    <t>I stayed here with my wife for two nights and everything worked out well. The proximity to LAX is ideal. Very short drive from the airport, but far enough that you don't hear the planes in your room. We also enjoyed the location because it's close to several of the beaches like Venice, Santa Monica, and Manhattan. The service was good, and the night manager showed up promptly to help us check in at 1:30 am. The only downside was the limited selection of the continental breakfast. But to be fair, it's an extended stay hotel with kitchens in every room, and there's a nice grocery store and a Starbucks next door. I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my wife for two nights and everything worked out well. The proximity to LAX is ideal. Very short drive from the airport, but far enough that you don't hear the planes in your room. We also enjoyed the location because it's close to several of the beaches like Venice, Santa Monica, and Manhattan. The service was good, and the night manager showed up promptly to help us check in at 1:30 am. The only downside was the limited selection of the continental breakfast. But to be fair, it's an extended stay hotel with kitchens in every room, and there's a nice grocery store and a Starbucks next door. I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r205579139-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>205579139</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Only there for 1 night but met expectations</t>
+  </si>
+  <si>
+    <t>We just finished a multiple leg journey all over Southern California, and had to catch an early morning flight back home.Extended Stay has very reasonable rates an is five minutes away from LAX - perfect for dropping off the rental and hopping on our flight at 6am.That being said, we never even saw the facility during daylight hours. I can say that check in (late evening) and checkout (early morning) went off with out a hitch.The room we had was clean and comfortable. Nothing fancy, but was exactly what we needed for this final leg of our trip. We'll be back if we need to stay over near LAX again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We just finished a multiple leg journey all over Southern California, and had to catch an early morning flight back home.Extended Stay has very reasonable rates an is five minutes away from LAX - perfect for dropping off the rental and hopping on our flight at 6am.That being said, we never even saw the facility during daylight hours. I can say that check in (late evening) and checkout (early morning) went off with out a hitch.The room we had was clean and comfortable. Nothing fancy, but was exactly what we needed for this final leg of our trip. We'll be back if we need to stay over near LAX again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r202467593-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>202467593</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Over all good experience</t>
+  </si>
+  <si>
+    <t>I have stayed at several Extended Stays and I will say this one is by far the best...especially between the two "LAX" hotels. Marcella was EXTREMELY nice and helpful. Clean. Grocery store close by. Will stay again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r194128019-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>194128019</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>I stayed here for five days and I enjoyed every minute that I spent here. Agreed, I was in my room early in the mornings and then back again only late in the nights, but it was a very pleasant stay. The hotel is in a great neighborhood- there are plenty of restaurants, supermarkets and eateries available within 5 minutes of walking distance (IHOP, Jersey Mike's subs, Carl's Jr, Habit, Ralphs etc). There is complimentary breakfast available in the mornings. (Note: there is no shuttle service from the airport to the hotel).The Mariposa Metro train station is a 10 minute walk from the hotel and buses going to LAX and Long Beach have stops very close to the hotel. It is 5 min by cab from the airport.The "downsides"? Downtown LA is an hour and a half worth of train/bus rides. I had a tough time trying to find easy, decent travel times to a lot of places such as the Getty Center, the Griffith Observatory and so on. However, I'm willing to overlook the hassle of having to travel longer to the city in view of a safe and secure stay ensured by the hotel. Will definitely recommend this to all kinds of travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for five days and I enjoyed every minute that I spent here. Agreed, I was in my room early in the mornings and then back again only late in the nights, but it was a very pleasant stay. The hotel is in a great neighborhood- there are plenty of restaurants, supermarkets and eateries available within 5 minutes of walking distance (IHOP, Jersey Mike's subs, Carl's Jr, Habit, Ralphs etc). There is complimentary breakfast available in the mornings. (Note: there is no shuttle service from the airport to the hotel).The Mariposa Metro train station is a 10 minute walk from the hotel and buses going to LAX and Long Beach have stops very close to the hotel. It is 5 min by cab from the airport.The "downsides"? Downtown LA is an hour and a half worth of train/bus rides. I had a tough time trying to find easy, decent travel times to a lot of places such as the Getty Center, the Griffith Observatory and so on. However, I'm willing to overlook the hassle of having to travel longer to the city in view of a safe and secure stay ensured by the hotel. Will definitely recommend this to all kinds of travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r179413625-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>179413625</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>Clean, quiet, spacious and recently renovated!</t>
+  </si>
+  <si>
+    <t>I stayed at the Extended Stay LAX Airport (El Segundo) the night before an international flight from LAX.  The hotel was perfect!  Free parking, grab n' go breakfast, freshly renovated rooms, and a quick and easy check-in.  The hotel feels a bit like an apartment complex but it nicely landscaped and you can park very close to your room.  Check-in was fast and friendly although my key didn't work the first time around.  Rooms were very spacious and comfortable. Would definitely stay here again before a trip.  It took just a few minutes to get to the airport.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r176784168-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>176784168</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Very clean and very reasonable</t>
+  </si>
+  <si>
+    <t>If your in the El Segundo stay here! The bus line is right out front and if you pay $1.50 to ride to the bus line station about 2 miles away you can take a shuttle for free to any area of LAX. The cabbies charge $19.00 for the same trip. It took us less than an hour to get to the UCLA Medical Center which is quicker than many people can drive it themselves if you take the express line. The whole bus ride is the number 6 route and it costs $1.00 from the station to Westwood.El Segundo has no beach at all. Just a power plant and some sand. There is no way to buy even a water and only one spot WAY down the beach with facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>If your in the El Segundo stay here! The bus line is right out front and if you pay $1.50 to ride to the bus line station about 2 miles away you can take a shuttle for free to any area of LAX. The cabbies charge $19.00 for the same trip. It took us less than an hour to get to the UCLA Medical Center which is quicker than many people can drive it themselves if you take the express line. The whole bus ride is the number 6 route and it costs $1.00 from the station to Westwood.El Segundo has no beach at all. Just a power plant and some sand. There is no way to buy even a water and only one spot WAY down the beach with facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r174394219-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>174394219</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Wonderful staff, great for extended stays</t>
+  </si>
+  <si>
+    <t>The check-in lady was just a pleasure to deal with.  All went well, she made me feel at home.  The room was pretty nice, everything worked fine.  The bed did squeak and wasn't the most comfortable, but it was fine.  It's neat that the kitchenette includes utensils, pots and pans, and a drinking water filter attached to the faucet.  You will need to bring your own shampoo, conditioner, and dish washing fluids, etc.  The only toilettre provided is soap.  There's a Ralphs literally behind so you can buy anything you need there.  Few food places across the street.  1.5 miles from LAX... but you can't hear the airplanes.  Free parking, easy access to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>The check-in lady was just a pleasure to deal with.  All went well, she made me feel at home.  The room was pretty nice, everything worked fine.  The bed did squeak and wasn't the most comfortable, but it was fine.  It's neat that the kitchenette includes utensils, pots and pans, and a drinking water filter attached to the faucet.  You will need to bring your own shampoo, conditioner, and dish washing fluids, etc.  The only toilettre provided is soap.  There's a Ralphs literally behind so you can buy anything you need there.  Few food places across the street.  1.5 miles from LAX... but you can't hear the airplanes.  Free parking, easy access to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r168126525-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>168126525</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>welcomed surprised</t>
+  </si>
+  <si>
+    <t>stay one night , and found this very good. first the rooms are updated with nice color scheme the staff very friendly, love the location right next to supermarket and many shops.the drawl back no pool, no tissues 'and no free breakfast  did have a mini kitchen.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r164285759-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>164285759</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>My stay at Extended Stay America</t>
+  </si>
+  <si>
+    <t>Many thanks to everyone at Extended Stay America, El Segunda.  My husband and I was recently in town for a graduation and time with the Grandkids.  We spent a couple of nights at the Extended Stay El Segundo and I tell you of all the years that we have stayed at this facility, this was indeed the best ever.  The room was great.  It was quiet, clean and smelled nice.  The wash room was so clean, everything work nicely and cleaned well. We didn't experience strange people standing around and parking was always plentiful and close to our room.  Thanks again Extended Stay for a very nice stay.R. Rowley</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r156686869-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>156686869</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Inexperienced, rude, dishonest.</t>
+  </si>
+  <si>
+    <t>Make a long story short. I was continually billed incorrectly. Had funds removed from my account without being notified (several times). Brand new boots stolen from room and told basically I was a liar. Rates are too high and they will raise them every chance they get without any notice!! I will return to the area in a couple months and will not be stating here!!  My co workers will be warned. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Make a long story short. I was continually billed incorrectly. Had funds removed from my account without being notified (several times). Brand new boots stolen from room and told basically I was a liar. Rates are too high and they will raise them every chance they get without any notice!! I will return to the area in a couple months and will not be stating here!!  My co workers will be warned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r149283856-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>149283856</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>PERFECT HOTEL</t>
+  </si>
+  <si>
+    <t>Hello there,I stayed at this hotel for the second time and my experience was amazing.  The staff treat each of the guests wonderful.  The hotel was extremely clean, and very attentive to my needs.  I would not recommend staying anywhere else if you are looking for a hotel near the LAX Airport.  I am very pleased that I stayed at the hotel and will do so each and everytime I visit the LA area.  Way to go!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded January 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2013</t>
+  </si>
+  <si>
+    <t>Hello there,I stayed at this hotel for the second time and my experience was amazing.  The staff treat each of the guests wonderful.  The hotel was extremely clean, and very attentive to my needs.  I would not recommend staying anywhere else if you are looking for a hotel near the LAX Airport.  I am very pleased that I stayed at the hotel and will do so each and everytime I visit the LA area.  Way to go!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r148090798-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>148090798</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Visiting Los Angeles on vacation, I received a great Priceline rate for Extended Stay America.  I am always initally leary when it comes to the hotels that accept my offer, but the location was prime, the rooms were clean and pretty up to date, clean gounds, parking was easy and check in and out was a breeze.  I was initially in a room on the first floor, but noticed I was near a high traffic (walking) area.  I asked to be moved to a second floor room.  The manager was polite and moved me without hesitation.  The hotel is just a walk across the parking lot to a grocery store, Starbucks, Quiznos, etc and there are many restaurants and even a cleaners right across the street.  I really enjoyed the fact that I was close to the beaches and when I wanted to venture into the city (Los Angeles), the freeway(s) were very close. I am a stickler as it relates to my travel accommodations and i definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded January 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2013</t>
+  </si>
+  <si>
+    <t>Visiting Los Angeles on vacation, I received a great Priceline rate for Extended Stay America.  I am always initally leary when it comes to the hotels that accept my offer, but the location was prime, the rooms were clean and pretty up to date, clean gounds, parking was easy and check in and out was a breeze.  I was initially in a room on the first floor, but noticed I was near a high traffic (walking) area.  I asked to be moved to a second floor room.  The manager was polite and moved me without hesitation.  The hotel is just a walk across the parking lot to a grocery store, Starbucks, Quiznos, etc and there are many restaurants and even a cleaners right across the street.  I really enjoyed the fact that I was close to the beaches and when I wanted to venture into the city (Los Angeles), the freeway(s) were very close. I am a stickler as it relates to my travel accommodations and i definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r145082094-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>145082094</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>Too Expensive for So Little</t>
+  </si>
+  <si>
+    <t>I paid $89 for a mediocre at best room with zero toiletries, the police coming in with a bullhorn to kick out 2 troublemaking ladies, and the check-in process that was the worst.  The location is OK and as I had a difficult time finding a room I thought this would work.  But Never again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2012</t>
+  </si>
+  <si>
+    <t>I paid $89 for a mediocre at best room with zero toiletries, the police coming in with a bullhorn to kick out 2 troublemaking ladies, and the check-in process that was the worst.  The location is OK and as I had a difficult time finding a room I thought this would work.  But Never again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r132408771-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>132408771</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>perfect location</t>
+  </si>
+  <si>
+    <t>I booked a room for relatives visiting from another country.  The location and accomodations were excellent. Near LAX, tours available for pick-up. The premises were newly remodeled clean, quiet and safe.  There's a 24 hr grocery next door for added convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I booked a room for relatives visiting from another country.  The location and accomodations were excellent. Near LAX, tours available for pick-up. The premises were newly remodeled clean, quiet and safe.  There's a 24 hr grocery next door for added convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r130066692-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>130066692</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Los Alamitos trip</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here recently one night while on a trip to the races.  Rooms were like studio apartments.  My only complaint is the air con ran all night and directly at our faces in bed.  Tried to find where to close the vent, however was unable.  Parking spaces too close together.  If i had to stay more than one night, i would have stayed somewhere with room service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here recently one night while on a trip to the races.  Rooms were like studio apartments.  My only complaint is the air con ran all night and directly at our faces in bed.  Tried to find where to close the vent, however was unable.  Parking spaces too close together.  If i had to stay more than one night, i would have stayed somewhere with room service.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1975,3644 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>178</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>187</v>
+      </c>
+      <c r="X17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>218</v>
+      </c>
+      <c r="X21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>237</v>
+      </c>
+      <c r="X24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>258</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>275</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s">
+        <v>297</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>298</v>
+      </c>
+      <c r="O32" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" t="s">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>316</v>
+      </c>
+      <c r="X34" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" t="s">
+        <v>323</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>324</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>325</v>
+      </c>
+      <c r="X35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>333</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>334</v>
+      </c>
+      <c r="X36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>333</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>342</v>
+      </c>
+      <c r="X37" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>350</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>350</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" t="s">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s">
+        <v>361</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>363</v>
+      </c>
+      <c r="X40" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>367</v>
+      </c>
+      <c r="J41" t="s">
+        <v>368</v>
+      </c>
+      <c r="K41" t="s">
+        <v>369</v>
+      </c>
+      <c r="L41" t="s">
+        <v>370</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>371</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s">
+        <v>376</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>377</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>377</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>385</v>
+      </c>
+      <c r="J44" t="s">
+        <v>386</v>
+      </c>
+      <c r="K44" t="s">
+        <v>387</v>
+      </c>
+      <c r="L44" t="s">
+        <v>388</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>389</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>392</v>
+      </c>
+      <c r="J45" t="s">
+        <v>393</v>
+      </c>
+      <c r="K45" t="s">
+        <v>394</v>
+      </c>
+      <c r="L45" t="s">
+        <v>395</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>396</v>
+      </c>
+      <c r="O45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" t="s">
+        <v>399</v>
+      </c>
+      <c r="K46" t="s">
+        <v>400</v>
+      </c>
+      <c r="L46" t="s">
+        <v>401</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>402</v>
+      </c>
+      <c r="O46" t="s">
+        <v>109</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>405</v>
+      </c>
+      <c r="J47" t="s">
+        <v>406</v>
+      </c>
+      <c r="K47" t="s">
+        <v>407</v>
+      </c>
+      <c r="L47" t="s">
+        <v>408</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>409</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>410</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>411</v>
+      </c>
+      <c r="J48" t="s">
+        <v>412</v>
+      </c>
+      <c r="K48" t="s">
+        <v>413</v>
+      </c>
+      <c r="L48" t="s">
+        <v>414</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>409</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>416</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J49" t="s">
+        <v>418</v>
+      </c>
+      <c r="K49" t="s">
+        <v>419</v>
+      </c>
+      <c r="L49" t="s">
+        <v>420</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>421</v>
+      </c>
+      <c r="O49" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>428</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>431</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>435</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>436</v>
+      </c>
+      <c r="J52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K52" t="s">
+        <v>438</v>
+      </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>440</v>
+      </c>
+      <c r="X52" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" t="s">
+        <v>445</v>
+      </c>
+      <c r="K53" t="s">
+        <v>446</v>
+      </c>
+      <c r="L53" t="s">
+        <v>447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>449</v>
+      </c>
+      <c r="X53" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>453</v>
+      </c>
+      <c r="J54" t="s">
+        <v>454</v>
+      </c>
+      <c r="K54" t="s">
+        <v>455</v>
+      </c>
+      <c r="L54" t="s">
+        <v>456</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>457</v>
+      </c>
+      <c r="O54" t="s">
+        <v>109</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>458</v>
+      </c>
+      <c r="X54" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>461</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>462</v>
+      </c>
+      <c r="J55" t="s">
+        <v>463</v>
+      </c>
+      <c r="K55" t="s">
+        <v>464</v>
+      </c>
+      <c r="L55" t="s">
+        <v>465</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" t="s">
+        <v>109</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>466</v>
+      </c>
+      <c r="X55" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>470</v>
+      </c>
+      <c r="J56" t="s">
+        <v>471</v>
+      </c>
+      <c r="K56" t="s">
+        <v>472</v>
+      </c>
+      <c r="L56" t="s">
+        <v>473</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>474</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>475</v>
+      </c>
+      <c r="X56" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>478</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>479</v>
+      </c>
+      <c r="J57" t="s">
+        <v>480</v>
+      </c>
+      <c r="K57" t="s">
+        <v>481</v>
+      </c>
+      <c r="L57" t="s">
+        <v>482</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>483</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>475</v>
+      </c>
+      <c r="X57" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>KonaBlueWahine</t>
   </si>
   <si>
     <t>07/01/2018</t>
@@ -193,6 +196,9 @@
 Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the...As a TripAdvisor reviewer, I should have known to pay more attention to reviews. I made the mistake of assuming that LAX-area hotels set up for longer stays were pretty much on the same level, and found that this is not the case!Our first clue was upon arrival at this property. Okay, there was a sign that said “lobby”... but where was the lobby? Everything was dark - apparently the Extended Stay doesn’t leave the light on for you after hours. My husband finally got out of the car and found a sign that said to call. A light came on, and after-hours agent Glenda came to let us in. Glenda actually proved to be very friendly and helpful, and helped us bring our bags to the room since Extended Stay doesn’t bother to provide luggage carts for their guests. This was not a great start, and we were already exhausted after a long, delayed flight.Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the stove burners worked. I’ve included pictures showing the lack of charging ports, the kitchen supplies and the items I had to buy or make myself that the hotel didn’t provide, including a do-not-disturb sign. Really, guys?The following morning, one of the housekeepers advised me not to leave used towels outside our room door, or that would be considered “damage” to hotel property. Gee, it would have been nice to have a sign letting guests know that they should leave their towels in the red bin outside!The whole vibe of this property is not “welcome to our hotel”, but “we’re going to provide as little service as we can get away with, and we don’t trust you not to steal our cheap kitchen stuff”.The one good thing about this stay was the friendliness and helpfulness of a few of the staff members, including Glenda, Tony and Brandy. However, this is not enough for me to consider returning to this property, since there is a nicer and affordable Marriott Towne Place and a Springhill Suites within about a mile of this hotel. Caveat emptor.More</t>
   </si>
   <si>
+    <t>8moreinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r562260784-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>1. How come this woman can be their front desk rep.? Need to be training otherwise they will lose customers for sure.2. Gave the room with one FULL size bed to my wife and me, are you kidding me???3. The room is smell and not clean, we got itch for 3 days after checked out.More</t>
   </si>
   <si>
+    <t>midspark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r547783647-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>The ladies at the front desk are great, but the accommodations here are very poor if you plan to stay for more than several days. First reason, the wifi is extremely bad. My phone and tablet could never connect to it. I even paid for the upgrade, and there was no improvement. Second reason, the no-smoking rule is very poorly enforced. My neighbor in the next room smoked. He regularly stood in the doorway smoking, and there were cigarette butts on the sidewalk outside his door. I even called it in to report it. They said they would take care of it, but he continued to smoke. The neighbor next to him also smoked. I saw them while they were standing in the hallway. This meant that I had to turn on the AC, which is a horrible waste of power in November &amp; December, but if I left my windows open, my room would smell of cigarette smoke. And the third reason is that the establishment offers breakfast, but in the last 1-2 weeks of the month, they run out of breakfast items (granola bars, oatmeal, muffins) and don't restock their inventory until the next month. Even if you are there first thing in the morning at 6am, they are clean out and only have coffee available. While the people who work here are friendly and I'm grateful that the establishment is pet friendly, I recommend staying somewhere else--especially...The ladies at the front desk are great, but the accommodations here are very poor if you plan to stay for more than several days. First reason, the wifi is extremely bad. My phone and tablet could never connect to it. I even paid for the upgrade, and there was no improvement. Second reason, the no-smoking rule is very poorly enforced. My neighbor in the next room smoked. He regularly stood in the doorway smoking, and there were cigarette butts on the sidewalk outside his door. I even called it in to report it. They said they would take care of it, but he continued to smoke. The neighbor next to him also smoked. I saw them while they were standing in the hallway. This meant that I had to turn on the AC, which is a horrible waste of power in November &amp; December, but if I left my windows open, my room would smell of cigarette smoke. And the third reason is that the establishment offers breakfast, but in the last 1-2 weeks of the month, they run out of breakfast items (granola bars, oatmeal, muffins) and don't restock their inventory until the next month. Even if you are there first thing in the morning at 6am, they are clean out and only have coffee available. While the people who work here are friendly and I'm grateful that the establishment is pet friendly, I recommend staying somewhere else--especially if it needs to be an extended stay.More</t>
   </si>
   <si>
+    <t>Fiontly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r534824261-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -283,6 +295,9 @@
     <t>Stayed in 1 night. Close to LAX with many food choice around. A simple basic double room with some basic kitchenette, nothing much to complaint as i was check in late at the night and checkout early in the morning. Wifi service is poor.More</t>
   </si>
   <si>
+    <t>diva2017132</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r529242710-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -310,6 +325,9 @@
     <t>I love Extended Stay Hotels in general, but this location was the most convenient. There is a Ralphs grocery store, Starbucks &amp; Chase bank right across the parking lot, Several places to eat across the street, The front desk, Maricella &amp; Seth the GM, were great.More</t>
   </si>
   <si>
+    <t>Colleen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r523620336-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -334,6 +352,9 @@
     <t>I'll be brief since we only stayed one night.  First off, it's an "extended stay" with a kitchen with absolutely no amenities. They say to call and get what you need but why and how do I know what I need. Here is not a coffee pot or coffee cups, so I had to get that, then somewhere along the way I realized I needed some silverware and drinking cups, a blanket, sheets for the pull out... the list goes on. Also, while we're at it, the pull out: oh my goodness!! It's a no.. very dirty but we had to use it since we had our 18 year old son with us... that was the brief review. All I can say is go somewhere else. There is a nice comfort suites not far away - go there... one more thing, wifi is awfulMore</t>
   </si>
   <si>
+    <t>Dorothy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r510379256-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -361,6 +382,9 @@
     <t>If you are seeing this to book and impressed by the pictures on the website. They are not what you will get in the El Segundo location!  It is filthy!  It is close to LAX but not worth the money! If I hadn't have been exhausted from an international flight I would have gone to another place!More</t>
   </si>
   <si>
+    <t>saminderc2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r509754101-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -385,6 +409,9 @@
     <t>Customer service is very poor. Room were clean but had smell in it. Front seat staff is not at all helpful and is rude. They say breakfast is included but they only provide muffins. There is kotheing else for breakfast. Would never like to stay here again.More</t>
   </si>
   <si>
+    <t>Ask Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r509610945-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -409,6 +436,9 @@
     <t>I stayed here for about 5 days with my wife.  Nice quiet hotel, no discernible airport noise, pleasant staff, reasonably clean.  plenty of parking and right next to 2 starbucks a ralph's and a chase atm.  wtf else do you need?We chose this because they allow smoking in some rooms.More</t>
   </si>
   <si>
+    <t>ashrutibhattarail</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r499825213-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -436,6 +466,9 @@
     <t>the room was filthy with toys from previous guests laying under the bed. it had hairs and had stains all over the bed. the room had no utensils. Generally ESA provides the utensils in the room. the only thing pleasant was the lady at the front desk.More</t>
   </si>
   <si>
+    <t>Jamey D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r497245717-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -463,6 +496,9 @@
     <t>I actually liked the Extended Stay America quite a bit. I mostly liked it for the location. You can walk to several restaurants including an In-N-Out, and there's a Ralph's nearby. The room we got is a basic studio. The kitchen is a nice place to sit, the shower is good, and the bed is comfortable. The sofa bed has a weird plastic case on it, and did not come with the sheets; I had to ask for them the second night.So there are several flaws with the hotel I want to point out. If they can fix those flaws, then this will be a perfect extended stay hotel. Flaw #1: The WiFi is a bit slow. It could use some boosting. Flaw #2: I wish they'd have the coffee during breakfast 24/7. Flaw #3: The breakfast is garbage. Only a few muffins in plastic. Flaw #4: The bathroom door lock in my room was broken. I don't remember the room number, but it's on the main building, is the first floor, is near the west stairs, and faces south. Fix all that, and we're golden.Yes, I think this is a great hotel. It's more than I expected.More</t>
   </si>
   <si>
+    <t>Okirua E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r495262392-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -487,6 +523,9 @@
     <t>Extended Stay America El Segundo is an exceptional Stay in LA. They consistently cater and satisfy my needs whenever I'm there. My first pick for stays around LAX.  10/10 Extended Stay America El Segundo More</t>
   </si>
   <si>
+    <t>Meghanizer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r490233975-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -514,6 +553,9 @@
     <t>The room was ok. It had a small kitchenette. I had to ask for pots, pans, and dishes. They didn't tell me this when I checked in so, for the first few weeks, I just didn't use the kitchenette. It would have been nice if they told me at check-in that these items were available for the asking. I saw someone even had a toaster so maybe I could have asked for a toaster too??The "breakfast" barely counted as food. It consisted of oatmeal, granola bar, and coffee. I had to go to the office every day to see if I got mail. It would be nice if they lit the light on your phone to tell you that you have mail.The smoke detector was broken and they never fixed it the entire time that I was there. I gave up complaining about it.More</t>
   </si>
   <si>
+    <t>Ashwin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r486714684-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -541,6 +583,9 @@
     <t>Stayed in this hotel for 2 days before my flight out of LAX. Have a super market and multiple food joints near by. Its quite far from most of the attractions if you are planning to go out. The room was quite old but was clean and didnt have any issues. Staff were very friendly and helpful.More</t>
   </si>
   <si>
+    <t>susanhersheyusa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r476970167-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -568,6 +613,9 @@
     <t>this hotel has it all, nice rooms that feel homey, kitchen in room, location nearLAX the beach great shopping and restaurants and clubs. Lots of privacy and quiet location. Great TV selection outstanding clean property and fabulous staff. You can bring your dog here. Not many hotels where you can do that !More</t>
   </si>
   <si>
+    <t>dietitiantothestars</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r446940201-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -592,6 +640,9 @@
     <t>I lived here for some time. There are some advantages, mainly location and towel/linen service.  The are some big cons which unfortunately outweigh the positives.  The main disadvantage is the rude manager Seth.  Advantage:  the super nice and efficient assistant manager Daisy.  Disadvantage:  Rooms are NOT cleaned well.  Advantage:  the maintenance man Juan is quite competent and efficient (speak to him directly if you really need something done in your room).  Disadvantage: If you complain about anything they increase your room rate.  If you sign up for two months in a row and pay up front, they will lock in a particular rate for you.  Disadvantage:  Police are often called to the premises for "domestic disputes" or drug deals or vandalism.  My friend came to visit on night and her car was viciously keyed all the way around.  Disadvantage:  Cigarette SMOKE:  supposedly they have designated Building #3 for smokers but they allow smokers to freely smoke everywhere on the premises.  This sucks big time as that smoke enters non-smokers rooms with abandon.  Management's response:  Too bad!  I wound up complaining to the City Council who told me to call the police when this happened.  This did not make me very popular as you can imagine and I had to move out.More</t>
   </si>
   <si>
+    <t>Griffin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r446014411-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -610,6 +661,9 @@
     <t>We stay here for 2 days in november. It's Clean and have parking inside. Very near to LA airport. Large room with kitchen and table for lunch or dinner. In the hall in the morning coffee and snack for breakfast. Pet friendly. Good More</t>
   </si>
   <si>
+    <t>craig_traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r435740864-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -634,6 +688,9 @@
     <t>I have stayed here twice now and its always been a solid experience: clean rooms with kitchens, free parking, free internet, and right next door to a supermarket and Starbucks.  Fast food and other options are across the street.  I noticed that the reception desk closes at 11pm, so I'm unsure as to how ate check ins work.  In any event, the property is easy access to freeways, LAX, and not too far from beaches.More</t>
   </si>
   <si>
+    <t>Kimberly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r412919787-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -661,6 +718,9 @@
     <t>Room was clean and was in a good area. Close to LAX. Good hotel and area for the price. But advertise Breakfast included?? Not even continental breakfast. Coffee and granola bar. I was expecting at least a boiled egg or a bagel. When I asked I was dismissed. The staff was lacking personality. But all in all it was a good stay. There are plenty of restaurants in the area for any meals. Starbucks and In and Out within walking distance. Grocery store next door.More</t>
   </si>
   <si>
+    <t>AimeeBeing</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r406785959-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -685,6 +745,9 @@
     <t>I was traveling with my elderly mother and booked a room 2 weeks in advance - disabled accessible, 2 beds, smoking allowed.We got to the hotel and were told that the room we reserved wasn't available, that we were being given a nonsmoking room with one bed on the second floor (no elevator). But, the lady behind the desk said, there was a pull-out sofa. So I had the pleasure of sleeping on the most uncomfortable bed-type-thing known to man and carting heavy luggage up and down stairs. My back was a wreck for a week. I had booked the room at a 20% discount but the bill the staff person handed me to sign when we checked in was for full price. I pointed this out to the lady and she said the discount would be taken off at check out. It would be nice if she'd told me that before asking me to sign. Then when we got to our room there were none of the kitchen amenities advertised. The refrigerator was off and there were no plates, pots, pans, utensils, coffee maker, etc. All that said, the room was clean, the AC/heating worked and the window opened all the way.More</t>
   </si>
   <si>
+    <t>Karen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r403215073-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -700,6 +763,9 @@
     <t>Missed our connection at LAX due to the Delta debacle, hotels were selling out fast, close to airport, room was clean, bed was comfy, grab and go breakfast not fancy but adequate, good coffee and staff very nice. Constuction right outside my building but I never heard it, 24 hour store within walking distance, I would stay here again in a pinch. No coffee maker in rooms so that was a bummer but overall good stay for one night.</t>
   </si>
   <si>
+    <t>dondymc46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r389098131-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -718,6 +784,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Kevin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r382750734-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -742,6 +811,9 @@
     <t>*Great front desk staff*Quiet property in spite of being located at busy intersection *Comfortable and fully stocked rooms *the value we received far exceeded the cost, would definitely stay here again....More</t>
   </si>
   <si>
+    <t>emtaika</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r382555850-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -760,6 +832,9 @@
     <t>The man at desk was not in a good mood and not helpful.  I had to ask for everything. He set us up beside a room with a barking pet.  Went back to lobby and a lady changed my room. Next day, no water because of maintenance so this is how I found out the maid service was only once a week and changing towels needed to be done at lobby.  It was mentioned free parking, free internet, free breakfast. Lobby is very small and coffee (with coffee mate !!!) is set up on a small table with small greasy pre-packaged muffins.  This is NOT breakfast it is complimentary snack and coffee. A few days later we had a note on our door indicating that the hotel now charges a fee of 15$ per night for parking.  We left the next day and I showed my reservation paper and the lady at the desk did not charge me.  I was charged almost 4$ for 3 local phone calls.   The rooms are small but clean and efficient enough,  good if you are around to sleep only. A grocery store was right by so that was also good.  Wi-fi was great.More</t>
   </si>
   <si>
+    <t>SBusby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r371315333-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -781,6 +856,9 @@
     <t>We stayed here for two nights this past week - our bed sheets were dirty, there was someone else's hair in the shower and food in the refrigerator. We were given no shampoo or conditioner or body wash and on our second day a maid never entered our room so we were given no clean towels. They also advertised this fabulous continental breakfast and when we arrived for breakfast there was only one package of oatmeal, packaged muffins and some moldy looking oranges. Very dissatisfied with our visit. We truly believe that our room was not cleaned before we entered it and we will never return nor will we ever let someone we know stay at the hotel.More</t>
   </si>
   <si>
+    <t>Tiffany H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r366705837-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -808,6 +886,9 @@
     <t>This hotel was very clean, but it only had the bare minimum. The free breakfast consisted of instant oatmeal and cereal bars only. The location was nice because of a grocery store and in-n-out within walking distance. The staff was friendly. More</t>
   </si>
   <si>
+    <t>Armen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r365281352-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -832,6 +913,9 @@
     <t>The location itself was great, as it was near a supermarket, a number of eateries, and a Starbucks.  They were all within a five minute walking distance.  The room itself was clean, well maintained, and though I only stayed a night, it seemed like an extended stay here would be sensible.  The kitchen had two burners and a microwave, as well as a decent refrigerator. The bathroom was relatively spacious, though the water pressure in the shower was weak.  The staff, though courteous, were not often available and were at times, difficult to locate.  Though they offered continental breakfast, it's nothing more than some fruit, granola bars, and coffee.  The "free wifi" they offered was very slow, and if you wish to skype, use viber, or for even average internet speed usage, you're prompted to upgrade to a paid wifi." Overall, not a bad place that was booked from Priceline; close enough to LAX ($20 by taxi to get there, approximately $11 to get back to the airport), and in a decent location with many stores and shops.More</t>
   </si>
   <si>
+    <t>jim_from_sf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r347522663-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -859,6 +943,9 @@
     <t>The location in El Segundo right off the 105 freeway is convenient. Not far from the beach, either. And there's free parking, a rarity in the LA area now.However, our room (a Queen non-smoking room) was small, smelled strange (probably from a chemical used to mask a previous smoker), and although it was a suite with a kitchenette, it had absolutely NO utensils of any kind: not even a cup to drink water from. Absolutely nothing. You need to ask the front desk for everything, and she seemed constantly overwhelmed as there was only one staff member to do everything. The iron stained our clothes as well. And it's not a cheap place to stay: not really a good value.More</t>
   </si>
   <si>
+    <t>jmack50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r346008570-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -886,6 +973,9 @@
     <t>Extended stay is five minute drive to LAX. Tidy little rooms with full fridge, kitchenette , microwave and kitchen utensils on request. It is beside Ralph's supermarket and has bank Starbucks and may eateries within 5 minute walk excellent location.More</t>
   </si>
   <si>
+    <t>S_Hazeltine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r344641311-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -901,6 +991,9 @@
     <t xml:space="preserve">The hotel has no outstanding qualities. Cleaning Service is weekly for extended stays. Cheap for the area. The best thing is that it's within walking distance of grocery and restaurants. It's located in a very safe location. Parking is adequate. Rooms are clean. I would stay again if only for the rates. </t>
   </si>
   <si>
+    <t>kobecat1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r320528398-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -928,6 +1021,9 @@
     <t>Two couples booked here for an overnight prior to flying home to Australia and used a consolidator site. Beds were like bricks, continental breakfast is a joke, our hairdryer did not work and our friends' toilet overflowed. Cleaners told them the plumbing had been a problem for weeks. Told us to go to the other site if we wanted any action, Extended Stay only offered a discount voucher for a future stay! Oh really, like we would stay there again. I understand these things happen but the clearly knew of the problems. If customer service mattered to ES surely they would initiate the refund. Stairs were filthy, with cigarette butts everywhere. Not nice, don't stay there.More</t>
   </si>
   <si>
+    <t>BaronMIke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r308622654-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -955,6 +1051,9 @@
     <t>First off the location of the hotel is great.  There is plenty of parking and it is close to grocery stores, etc. The front desk staff was friendly and polite.It looks like they have some a few updates.  New paint, new flooring. which is where the good stops.There was a very en-grained smell of old cigarette smoke. It was a little musty in the room which made the smell stronger.  I think it was coming from the curtains. The bed was very uncomfortable, one of the worst mattresses i have slept on in years. The grout around the tub was filthy and was peeling away. the tub itself needs to be redone - all of the porcelean wrapping was peeling off and there is no way someone would want to take a bath in that tub.Over all, not the worst by any means, but I will look for a different place next time I am in El Segundo.More</t>
   </si>
   <si>
+    <t>Joseph C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r303049297-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -979,6 +1078,9 @@
     <t>Nice and clean . Service is excellent and Starbucks  , Ralphs  &amp; the Train Station  very  close to walk by . If you need ectra item you just call and go to the FrontDesk to pick up . No too far from LAX Airport  .More</t>
   </si>
   <si>
+    <t>Kalistud23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r282359184-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1006,6 +1108,9 @@
     <t>The room had a smell to it and the room was NOT UP TO PAR. it was still dirty, the stove and the. Refrigerator  were NOT clean. So NOOOOOOOOOOOOOO I WILL NOT RETURN TO THIS PLACE AGAIN, THANK YOU have a nice dayMore</t>
   </si>
   <si>
+    <t>Jewlsgrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r275186008-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1033,6 +1138,9 @@
     <t>We stayed here while working at the refinery. Overall the stay was okay. You have to make an appointment to have your room cleaned if you work nights. You have to ask for towels and anything else you need. They have a nice laundry facility. Grocery store next door provides convenience. Beware if you check out before your extended stay is up you will be assessed a different rate. Rates are a lot higher being so close to the airport. Will eat up your full per diem check. Was scared one night by large man in suit and large man in dress with lots of wild make-up and huge wig. Co-workers saw them on different nights also. More</t>
   </si>
   <si>
+    <t>T L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r270257070-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1057,6 +1165,9 @@
     <t>The room was clean and looked fairly updated. Nothing super fancy, but the bed and furniture was comfortable enough. I did not have a problem with noise. The mini-kitchen and refrigerator were especially useful features given that the hotel is next door to a grocery store. This place is great for the cost-conscious traveler who wants a decent, no-frills hotel stay close to LAX. The only thing I wish it had was a shuttle service to the airport.More</t>
   </si>
   <si>
+    <t>cyclist16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r259007909-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1075,6 +1186,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Mfshehri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r255893587-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1093,6 +1207,9 @@
     <t>We booked our stay in Los Angeles in this hotel. We got a good deal so we decided to stay in it. The room was clean but smelled bad. The microwave was dirty and smelled really really bad!! Towels were obviously very old and not clean enough. I think they told their staff not to smile or to greet any guest but they were helpful. My 10 old son slept on the floor in the first night as they didn't have cribs and got one next day so you might need call and reserve one before. The bath tube is dusty and not clean. the bed was not comfy and make noise with any small movement on bed which was very annoying for us and the baby as well. Free internet and parking.Will not stay again and wouldn't recommend this hotel.More</t>
   </si>
   <si>
+    <t>John-W010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r244746391-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1120,6 +1237,9 @@
     <t>I have stayed at this hotel while traveling numerous times over the years. It has been recently remodeled and the rooms are clean and comfortable. Close to Los Angeles International airport, many restaurants close by and a super market right next door. Desk staff very helpful and courteous.More</t>
   </si>
   <si>
+    <t>Camda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r231023175-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1138,6 +1258,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>tmcd433</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r221606509-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1156,6 +1279,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Adam W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r221398348-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1174,6 +1300,9 @@
     <t>I stayed here with my wife for two nights and everything worked out well. The proximity to LAX is ideal. Very short drive from the airport, but far enough that you don't hear the planes in your room. We also enjoyed the location because it's close to several of the beaches like Venice, Santa Monica, and Manhattan. The service was good, and the night manager showed up promptly to help us check in at 1:30 am. The only downside was the limited selection of the continental breakfast. But to be fair, it's an extended stay hotel with kitchens in every room, and there's a nice grocery store and a Starbucks next door. I'd stay here again.More</t>
   </si>
   <si>
+    <t>Andy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r205579139-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1195,6 +1324,9 @@
     <t>We just finished a multiple leg journey all over Southern California, and had to catch an early morning flight back home.Extended Stay has very reasonable rates an is five minutes away from LAX - perfect for dropping off the rental and hopping on our flight at 6am.That being said, we never even saw the facility during daylight hours. I can say that check in (late evening) and checkout (early morning) went off with out a hitch.The room we had was clean and comfortable. Nothing fancy, but was exactly what we needed for this final leg of our trip. We'll be back if we need to stay over near LAX again.More</t>
   </si>
   <si>
+    <t>SoLady_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r202467593-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1213,6 +1345,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Nenya08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r194128019-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1234,6 +1369,9 @@
     <t>I stayed here for five days and I enjoyed every minute that I spent here. Agreed, I was in my room early in the mornings and then back again only late in the nights, but it was a very pleasant stay. The hotel is in a great neighborhood- there are plenty of restaurants, supermarkets and eateries available within 5 minutes of walking distance (IHOP, Jersey Mike's subs, Carl's Jr, Habit, Ralphs etc). There is complimentary breakfast available in the mornings. (Note: there is no shuttle service from the airport to the hotel).The Mariposa Metro train station is a 10 minute walk from the hotel and buses going to LAX and Long Beach have stops very close to the hotel. It is 5 min by cab from the airport.The "downsides"? Downtown LA is an hour and a half worth of train/bus rides. I had a tough time trying to find easy, decent travel times to a lot of places such as the Getty Center, the Griffith Observatory and so on. However, I'm willing to overlook the hassle of having to travel longer to the city in view of a safe and secure stay ensured by the hotel. Will definitely recommend this to all kinds of travelers.More</t>
   </si>
   <si>
+    <t>everyshadeofblue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r179413625-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1252,6 +1390,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Rick M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r176784168-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1270,6 +1411,9 @@
     <t>If your in the El Segundo stay here! The bus line is right out front and if you pay $1.50 to ride to the bus line station about 2 miles away you can take a shuttle for free to any area of LAX. The cabbies charge $19.00 for the same trip. It took us less than an hour to get to the UCLA Medical Center which is quicker than many people can drive it themselves if you take the express line. The whole bus ride is the number 6 route and it costs $1.00 from the station to Westwood.El Segundo has no beach at all. Just a power plant and some sand. There is no way to buy even a water and only one spot WAY down the beach with facilities.More</t>
   </si>
   <si>
+    <t>silentak1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r174394219-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1291,6 +1435,9 @@
     <t>The check-in lady was just a pleasure to deal with.  All went well, she made me feel at home.  The room was pretty nice, everything worked fine.  The bed did squeak and wasn't the most comfortable, but it was fine.  It's neat that the kitchenette includes utensils, pots and pans, and a drinking water filter attached to the faucet.  You will need to bring your own shampoo, conditioner, and dish washing fluids, etc.  The only toilettre provided is soap.  There's a Ralphs literally behind so you can buy anything you need there.  Few food places across the street.  1.5 miles from LAX... but you can't hear the airplanes.  Free parking, easy access to the hotel.More</t>
   </si>
   <si>
+    <t>asfran100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r168126525-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1309,6 +1456,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>RRowley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r164285759-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1327,6 +1477,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Aaronh1212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r156686869-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1351,6 +1504,9 @@
     <t>Make a long story short. I was continually billed incorrectly. Had funds removed from my account without being notified (several times). Brand new boots stolen from room and told basically I was a liar. Rates are too high and they will raise them every chance they get without any notice!! I will return to the area in a couple months and will not be stating here!!  My co workers will be warned. More</t>
   </si>
   <si>
+    <t>Montel R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r149283856-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1378,6 +1534,9 @@
     <t>Hello there,I stayed at this hotel for the second time and my experience was amazing.  The staff treat each of the guests wonderful.  The hotel was extremely clean, and very attentive to my needs.  I would not recommend staying anywhere else if you are looking for a hotel near the LAX Airport.  I am very pleased that I stayed at the hotel and will do so each and everytime I visit the LA area.  Way to go!!!!More</t>
   </si>
   <si>
+    <t>E S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r148090798-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1405,6 +1564,9 @@
     <t>Visiting Los Angeles on vacation, I received a great Priceline rate for Extended Stay America.  I am always initally leary when it comes to the hotels that accept my offer, but the location was prime, the rooms were clean and pretty up to date, clean gounds, parking was easy and check in and out was a breeze.  I was initially in a room on the first floor, but noticed I was near a high traffic (walking) area.  I asked to be moved to a second floor room.  The manager was polite and moved me without hesitation.  The hotel is just a walk across the parking lot to a grocery store, Starbucks, Quiznos, etc and there are many restaurants and even a cleaners right across the street.  I really enjoyed the fact that I was close to the beaches and when I wanted to venture into the city (Los Angeles), the freeway(s) were very close. I am a stickler as it relates to my travel accommodations and i definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>334JimW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r145082094-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1429,6 +1591,9 @@
     <t>I paid $89 for a mediocre at best room with zero toiletries, the police coming in with a bullhorn to kick out 2 troublemaking ladies, and the check-in process that was the worst.  The location is OK and as I had a difficult time finding a room I thought this would work.  But Never again!!More</t>
   </si>
   <si>
+    <t>ykeh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r132408771-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1454,6 +1619,9 @@
   </si>
   <si>
     <t>I booked a room for relatives visiting from another country.  The location and accomodations were excellent. Near LAX, tours available for pick-up. The premises were newly remodeled clean, quiet and safe.  There's a 24 hr grocery next door for added convenience.More</t>
+  </si>
+  <si>
+    <t>T K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r130066692-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1979,43 +2147,47 @@
       <c r="A2" t="n">
         <v>35189</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2027,56 +2199,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35189</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146322</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2088,56 +2264,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35189</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2153,56 +2333,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35189</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146324</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2214,56 +2398,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35189</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146325</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2275,56 +2463,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35189</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>48390</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2342,56 +2534,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35189</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>7997</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2413,56 +2609,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35189</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2484,56 +2684,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35189</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146327</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2551,56 +2755,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35189</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146328</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2622,56 +2830,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35189</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146329</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2687,56 +2899,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35189</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146330</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2758,56 +2974,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35189</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146331</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2823,56 +3043,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35189</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2888,56 +3112,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="X15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35189</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146333</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2955,47 +3183,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="X16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35189</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
@@ -3012,56 +3244,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Y17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35189</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146335</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3073,56 +3309,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35189</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146336</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3138,56 +3378,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35189</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>33619</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3199,56 +3443,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35189</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146337</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3266,56 +3514,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="X21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35189</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>8300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3329,50 +3581,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35189</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146338</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3390,50 +3646,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35189</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>6280</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3449,56 +3709,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35189</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146339</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3518,50 +3782,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35189</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146340</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3581,50 +3849,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35189</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>6244</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3636,56 +3908,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35189</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146341</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3701,56 +3977,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="X28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35189</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146342</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3768,56 +4048,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="X29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35189</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146343</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3833,56 +4117,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35189</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146344</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3896,50 +4184,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35189</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146345</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="O32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3955,56 +4247,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35189</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146346</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4022,56 +4318,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35189</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>10883</v>
+      </c>
+      <c r="C34" t="s">
+        <v>343</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4083,56 +4383,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="X34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="Y34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35189</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146347</v>
+      </c>
+      <c r="C35" t="s">
+        <v>352</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="L35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4144,56 +4448,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="X35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="Y35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35189</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146348</v>
+      </c>
+      <c r="C36" t="s">
+        <v>362</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4205,56 +4513,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35189</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>47394</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="O37" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4272,56 +4584,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="X37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35189</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146349</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4339,50 +4655,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35189</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146350</v>
+      </c>
+      <c r="C39" t="s">
+        <v>388</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4396,50 +4716,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35189</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146351</v>
+      </c>
+      <c r="C40" t="s">
+        <v>395</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="J40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4457,56 +4781,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="X40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Y40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35189</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146352</v>
+      </c>
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="J41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="K41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4526,50 +4854,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35189</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146353</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4589,50 +4921,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35189</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>41399</v>
+      </c>
+      <c r="C43" t="s">
+        <v>419</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4652,50 +4988,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35189</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146354</v>
+      </c>
+      <c r="C44" t="s">
+        <v>426</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="K44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4719,50 +5059,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35189</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146355</v>
+      </c>
+      <c r="C45" t="s">
+        <v>434</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="J45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="K45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="O45" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4786,50 +5130,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35189</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>441</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="J46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="K46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="O46" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4853,50 +5201,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35189</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>63007</v>
+      </c>
+      <c r="C47" t="s">
+        <v>449</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="J47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4920,50 +5272,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35189</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>14861</v>
+      </c>
+      <c r="C48" t="s">
+        <v>456</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="J48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="K48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="L48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4987,50 +5343,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35189</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146357</v>
+      </c>
+      <c r="C49" t="s">
+        <v>463</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="K49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="L49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="O49" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5054,50 +5414,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35189</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146358</v>
+      </c>
+      <c r="C50" t="s">
+        <v>471</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="J50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5121,50 +5485,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35189</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146359</v>
+      </c>
+      <c r="C51" t="s">
+        <v>478</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5188,41 +5556,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35189</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146360</v>
+      </c>
+      <c r="C52" t="s">
+        <v>485</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="J52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="K52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="L52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
@@ -5249,56 +5621,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="X52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="Y52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35189</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146361</v>
+      </c>
+      <c r="C53" t="s">
+        <v>494</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="J53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="K53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="L53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="O53" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5320,56 +5696,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="X53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="Y53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35189</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146362</v>
+      </c>
+      <c r="C54" t="s">
+        <v>504</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="J54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="K54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="L54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="O54" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5391,56 +5771,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="X54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="Y54" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35189</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146363</v>
+      </c>
+      <c r="C55" t="s">
+        <v>514</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="J55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="K55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="L55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="O55" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
@@ -5462,56 +5846,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="X55" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="Y55" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35189</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146364</v>
+      </c>
+      <c r="C56" t="s">
+        <v>523</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="J56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="K56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="L56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5533,56 +5921,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="X56" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="Y56" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35189</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>47455</v>
+      </c>
+      <c r="C57" t="s">
+        <v>533</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="J57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="K57" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="L57" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5604,13 +5996,13 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="X57" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="Y57" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
@@ -2148,7 +2148,7 @@
         <v>35189</v>
       </c>
       <c r="B2" t="n">
-        <v>146321</v>
+        <v>177653</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2213,7 +2213,7 @@
         <v>35189</v>
       </c>
       <c r="B3" t="n">
-        <v>146322</v>
+        <v>177654</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2278,7 +2278,7 @@
         <v>35189</v>
       </c>
       <c r="B4" t="n">
-        <v>146323</v>
+        <v>177655</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2347,7 +2347,7 @@
         <v>35189</v>
       </c>
       <c r="B5" t="n">
-        <v>146324</v>
+        <v>177656</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -2412,7 +2412,7 @@
         <v>35189</v>
       </c>
       <c r="B6" t="n">
-        <v>146325</v>
+        <v>177657</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
@@ -2623,7 +2623,7 @@
         <v>35189</v>
       </c>
       <c r="B9" t="n">
-        <v>146326</v>
+        <v>177658</v>
       </c>
       <c r="C9" t="s">
         <v>120</v>
@@ -2698,7 +2698,7 @@
         <v>35189</v>
       </c>
       <c r="B10" t="n">
-        <v>146327</v>
+        <v>177659</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -2769,7 +2769,7 @@
         <v>35189</v>
       </c>
       <c r="B11" t="n">
-        <v>146328</v>
+        <v>177660</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
@@ -2844,7 +2844,7 @@
         <v>35189</v>
       </c>
       <c r="B12" t="n">
-        <v>146329</v>
+        <v>177661</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -2913,7 +2913,7 @@
         <v>35189</v>
       </c>
       <c r="B13" t="n">
-        <v>146330</v>
+        <v>177662</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -2988,7 +2988,7 @@
         <v>35189</v>
       </c>
       <c r="B14" t="n">
-        <v>146331</v>
+        <v>177663</v>
       </c>
       <c r="C14" t="s">
         <v>167</v>
@@ -3057,7 +3057,7 @@
         <v>35189</v>
       </c>
       <c r="B15" t="n">
-        <v>146332</v>
+        <v>177664</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
@@ -3126,7 +3126,7 @@
         <v>35189</v>
       </c>
       <c r="B16" t="n">
-        <v>146333</v>
+        <v>177665</v>
       </c>
       <c r="C16" t="s">
         <v>187</v>
@@ -3197,7 +3197,7 @@
         <v>35189</v>
       </c>
       <c r="B17" t="n">
-        <v>146334</v>
+        <v>177666</v>
       </c>
       <c r="C17" t="s">
         <v>197</v>
@@ -3258,7 +3258,7 @@
         <v>35189</v>
       </c>
       <c r="B18" t="n">
-        <v>146335</v>
+        <v>177667</v>
       </c>
       <c r="C18" t="s">
         <v>206</v>
@@ -3323,7 +3323,7 @@
         <v>35189</v>
       </c>
       <c r="B19" t="n">
-        <v>146336</v>
+        <v>177668</v>
       </c>
       <c r="C19" t="s">
         <v>213</v>
@@ -3457,7 +3457,7 @@
         <v>35189</v>
       </c>
       <c r="B21" t="n">
-        <v>146337</v>
+        <v>177669</v>
       </c>
       <c r="C21" t="s">
         <v>232</v>
@@ -3589,7 +3589,7 @@
         <v>35189</v>
       </c>
       <c r="B23" t="n">
-        <v>146338</v>
+        <v>177670</v>
       </c>
       <c r="C23" t="s">
         <v>247</v>
@@ -3723,7 +3723,7 @@
         <v>35189</v>
       </c>
       <c r="B25" t="n">
-        <v>146339</v>
+        <v>177671</v>
       </c>
       <c r="C25" t="s">
         <v>263</v>
@@ -3790,7 +3790,7 @@
         <v>35189</v>
       </c>
       <c r="B26" t="n">
-        <v>146340</v>
+        <v>177672</v>
       </c>
       <c r="C26" t="s">
         <v>270</v>
@@ -3922,7 +3922,7 @@
         <v>35189</v>
       </c>
       <c r="B28" t="n">
-        <v>146341</v>
+        <v>177673</v>
       </c>
       <c r="C28" t="s">
         <v>288</v>
@@ -3991,7 +3991,7 @@
         <v>35189</v>
       </c>
       <c r="B29" t="n">
-        <v>146342</v>
+        <v>177674</v>
       </c>
       <c r="C29" t="s">
         <v>297</v>
@@ -4062,7 +4062,7 @@
         <v>35189</v>
       </c>
       <c r="B30" t="n">
-        <v>146343</v>
+        <v>177675</v>
       </c>
       <c r="C30" t="s">
         <v>307</v>
@@ -4131,7 +4131,7 @@
         <v>35189</v>
       </c>
       <c r="B31" t="n">
-        <v>146344</v>
+        <v>177676</v>
       </c>
       <c r="C31" t="s">
         <v>317</v>
@@ -4192,7 +4192,7 @@
         <v>35189</v>
       </c>
       <c r="B32" t="n">
-        <v>146345</v>
+        <v>177677</v>
       </c>
       <c r="C32" t="s">
         <v>323</v>
@@ -4261,7 +4261,7 @@
         <v>35189</v>
       </c>
       <c r="B33" t="n">
-        <v>146346</v>
+        <v>177678</v>
       </c>
       <c r="C33" t="s">
         <v>333</v>
@@ -4397,7 +4397,7 @@
         <v>35189</v>
       </c>
       <c r="B35" t="n">
-        <v>146347</v>
+        <v>177679</v>
       </c>
       <c r="C35" t="s">
         <v>352</v>
@@ -4462,7 +4462,7 @@
         <v>35189</v>
       </c>
       <c r="B36" t="n">
-        <v>146348</v>
+        <v>177680</v>
       </c>
       <c r="C36" t="s">
         <v>362</v>
@@ -4598,7 +4598,7 @@
         <v>35189</v>
       </c>
       <c r="B38" t="n">
-        <v>146349</v>
+        <v>177681</v>
       </c>
       <c r="C38" t="s">
         <v>381</v>
@@ -4663,7 +4663,7 @@
         <v>35189</v>
       </c>
       <c r="B39" t="n">
-        <v>146350</v>
+        <v>177682</v>
       </c>
       <c r="C39" t="s">
         <v>388</v>
@@ -4724,7 +4724,7 @@
         <v>35189</v>
       </c>
       <c r="B40" t="n">
-        <v>146351</v>
+        <v>177683</v>
       </c>
       <c r="C40" t="s">
         <v>395</v>
@@ -4795,7 +4795,7 @@
         <v>35189</v>
       </c>
       <c r="B41" t="n">
-        <v>146352</v>
+        <v>177684</v>
       </c>
       <c r="C41" t="s">
         <v>405</v>
@@ -4862,7 +4862,7 @@
         <v>35189</v>
       </c>
       <c r="B42" t="n">
-        <v>146353</v>
+        <v>177685</v>
       </c>
       <c r="C42" t="s">
         <v>412</v>
@@ -4996,7 +4996,7 @@
         <v>35189</v>
       </c>
       <c r="B44" t="n">
-        <v>146354</v>
+        <v>177686</v>
       </c>
       <c r="C44" t="s">
         <v>426</v>
@@ -5067,7 +5067,7 @@
         <v>35189</v>
       </c>
       <c r="B45" t="n">
-        <v>146355</v>
+        <v>177687</v>
       </c>
       <c r="C45" t="s">
         <v>434</v>
@@ -5138,7 +5138,7 @@
         <v>35189</v>
       </c>
       <c r="B46" t="n">
-        <v>146356</v>
+        <v>177688</v>
       </c>
       <c r="C46" t="s">
         <v>441</v>
@@ -5351,7 +5351,7 @@
         <v>35189</v>
       </c>
       <c r="B49" t="n">
-        <v>146357</v>
+        <v>177689</v>
       </c>
       <c r="C49" t="s">
         <v>463</v>
@@ -5422,7 +5422,7 @@
         <v>35189</v>
       </c>
       <c r="B50" t="n">
-        <v>146358</v>
+        <v>177690</v>
       </c>
       <c r="C50" t="s">
         <v>471</v>
@@ -5493,7 +5493,7 @@
         <v>35189</v>
       </c>
       <c r="B51" t="n">
-        <v>146359</v>
+        <v>177691</v>
       </c>
       <c r="C51" t="s">
         <v>478</v>
@@ -5564,7 +5564,7 @@
         <v>35189</v>
       </c>
       <c r="B52" t="n">
-        <v>146360</v>
+        <v>177692</v>
       </c>
       <c r="C52" t="s">
         <v>485</v>
@@ -5635,7 +5635,7 @@
         <v>35189</v>
       </c>
       <c r="B53" t="n">
-        <v>146361</v>
+        <v>177693</v>
       </c>
       <c r="C53" t="s">
         <v>494</v>
@@ -5710,7 +5710,7 @@
         <v>35189</v>
       </c>
       <c r="B54" t="n">
-        <v>146362</v>
+        <v>177694</v>
       </c>
       <c r="C54" t="s">
         <v>504</v>
@@ -5785,7 +5785,7 @@
         <v>35189</v>
       </c>
       <c r="B55" t="n">
-        <v>146363</v>
+        <v>177695</v>
       </c>
       <c r="C55" t="s">
         <v>514</v>
@@ -5860,7 +5860,7 @@
         <v>35189</v>
       </c>
       <c r="B56" t="n">
-        <v>146364</v>
+        <v>177696</v>
       </c>
       <c r="C56" t="s">
         <v>523</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_257.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
   <si>
     <t>STR#</t>
   </si>
@@ -150,19 +150,136 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>KonaBlueWahine</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r608952964-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>32341</t>
+  </si>
+  <si>
+    <t>225788</t>
+  </si>
+  <si>
+    <t>608952964</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Blue Collar...</t>
+  </si>
+  <si>
+    <t>...Modern, well maintained facility serving the economy end of the intermediate stay market. Parking is available for an additional charge. Airport shuttle is NOT provided. Basic "grab and go" continental breakfast provided each morning.  Internet is free. Overall better than a Motel 6 but well below Residence by Marriott standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>...Modern, well maintained facility serving the economy end of the intermediate stay market. Parking is available for an additional charge. Airport shuttle is NOT provided. Basic "grab and go" continental breakfast provided each morning.  Internet is free. Overall better than a Motel 6 but well below Residence by Marriott standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r533488544-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>533488544</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Extended experience</t>
+  </si>
+  <si>
+    <t>This is my go to hotel in lax every time. The rooms are clean which is a must for me. Stayed here 5 times this year and it’s the same experience every time, consistent with service and quality. Ralph’s grocers literally is right next door which is very handy. Staff is awesome. Thanks Extended Stay America-El Segundo. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>This is my go to hotel in lax every time. The rooms are clean which is a must for me. Stayed here 5 times this year and it’s the same experience every time, consistent with service and quality. Ralph’s grocers literally is right next door which is very handy. Staff is awesome. Thanks Extended Stay America-El Segundo. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r603665587-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>603665587</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Not customer friendly</t>
+  </si>
+  <si>
+    <t>Don't stay here. The staff will not go out of their way to help you.
+We booked this hotel for our last night in LA because of its proximity to the airport. First, despite being advertised as having Free Parking on Trip Advisor, there is a $15 charge per night to park. (We got this fee waived only after pointing out what Trip Advisor advertised.) When we arrived, despite having booked (through Hotels.com) a double room with two beds, we were told that no double rooms were available, that because we didn't book directly through the hotel website, that the second bed was not guaranteed. (Since when is a bed a "special request"?) The young man at the front desk told us that there was nothing he could do. He offered to compensate us by waiving the parking fee, something we had already been promised anyway. He made no effort to find a solution to the problem until we asked to see the manager. Suddenly, he was then able to give us two separate single rooms at no extra charge. (This was a good solution and would have been better received had it been done proactively.)
+My friend and I each requested wake up calls for the next morning. However, the staff failed to make either call!! Wow!! That has NEVER happened to me before at a hotel, and at this hotel, it happened TWICE!!
+The rooms themselves were OK,...Don't stay here. The staff will not go out of their way to help you.We booked this hotel for our last night in LA because of its proximity to the airport. First, despite being advertised as having Free Parking on Trip Advisor, there is a $15 charge per night to park. (We got this fee waived only after pointing out what Trip Advisor advertised.) When we arrived, despite having booked (through Hotels.com) a double room with two beds, we were told that no double rooms were available, that because we didn't book directly through the hotel website, that the second bed was not guaranteed. (Since when is a bed a "special request"?) The young man at the front desk told us that there was nothing he could do. He offered to compensate us by waiving the parking fee, something we had already been promised anyway. He made no effort to find a solution to the problem until we asked to see the manager. Suddenly, he was then able to give us two separate single rooms at no extra charge. (This was a good solution and would have been better received had it been done proactively.)My friend and I each requested wake up calls for the next morning. However, the staff failed to make either call!! Wow!! That has NEVER happened to me before at a hotel, and at this hotel, it happened TWICE!!The rooms themselves were OK, but my refrigerator did not work well; I left a sandwich in there overnight, and the next morning, the inside of the refrigerator felt warm.The only advantages of the hotel are that it is close to the airport and that has good food right next to it: In N Out Burger, Jersey Mikes, Starbucks and Ralph's market, which is open 24 hours.A little customer service would go a long way. Unfortunately, the staff here simply does not care about its guests.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Don't stay here. The staff will not go out of their way to help you.
+We booked this hotel for our last night in LA because of its proximity to the airport. First, despite being advertised as having Free Parking on Trip Advisor, there is a $15 charge per night to park. (We got this fee waived only after pointing out what Trip Advisor advertised.) When we arrived, despite having booked (through Hotels.com) a double room with two beds, we were told that no double rooms were available, that because we didn't book directly through the hotel website, that the second bed was not guaranteed. (Since when is a bed a "special request"?) The young man at the front desk told us that there was nothing he could do. He offered to compensate us by waiving the parking fee, something we had already been promised anyway. He made no effort to find a solution to the problem until we asked to see the manager. Suddenly, he was then able to give us two separate single rooms at no extra charge. (This was a good solution and would have been better received had it been done proactively.)
+My friend and I each requested wake up calls for the next morning. However, the staff failed to make either call!! Wow!! That has NEVER happened to me before at a hotel, and at this hotel, it happened TWICE!!
+The rooms themselves were OK,...Don't stay here. The staff will not go out of their way to help you.We booked this hotel for our last night in LA because of its proximity to the airport. First, despite being advertised as having Free Parking on Trip Advisor, there is a $15 charge per night to park. (We got this fee waived only after pointing out what Trip Advisor advertised.) When we arrived, despite having booked (through Hotels.com) a double room with two beds, we were told that no double rooms were available, that because we didn't book directly through the hotel website, that the second bed was not guaranteed. (Since when is a bed a "special request"?) The young man at the front desk told us that there was nothing he could do. He offered to compensate us by waiving the parking fee, something we had already been promised anyway. He made no effort to find a solution to the problem until we asked to see the manager. Suddenly, he was then able to give us two separate single rooms at no extra charge. (This was a good solution and would have been better received had it been done proactively.)My friend and I each requested wake up calls for the next morning. However, the staff failed to make either call!! Wow!! That has NEVER happened to me before at a hotel, and at this hotel, it happened TWICE!!The rooms themselves were OK, but my refrigerator did not work well; I left a sandwich in there overnight, and the next morning, the inside of the refrigerator felt warm.The only advantages of the hotel are that it is close to the airport and that has good food right next to it: In N Out Burger, Jersey Mikes, Starbucks and Ralph's market, which is open 24 hours.A little customer service would go a long way. Unfortunately, the staff here simply does not care about its guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r590999232-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>590999232</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Bare bones without customer service</t>
+  </si>
+  <si>
+    <t>This is basically a motel 6 with a kitchen that keeps adding extra charges.  There is a charge for parking with no security, charge for pets when there is nothing of any value in the room, including carpeting.  The final straw is charging early check in fee for 30 minute early check in.  There is a no smoking charge of $250 yet in the 4+ rooms I have stayed in here the room reeks of tobacco smoke so clearly they aren’t using the charge to clean the room.  I have stayed here about 6 times over 3 months while I search for a home in Los Amgeles.  On weekends there is only one person working and they have to do things all over the property so your wait time could get lengthy if you need something.  This is also the most unfriendly staff at the front desk in any of the 10+ ESA hotels I have stayed in.  Unfortunately I have thenm booked for the next two nights without refund or I would look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>This is basically a motel 6 with a kitchen that keeps adding extra charges.  There is a charge for parking with no security, charge for pets when there is nothing of any value in the room, including carpeting.  The final straw is charging early check in fee for 30 minute early check in.  There is a no smoking charge of $250 yet in the 4+ rooms I have stayed in here the room reeks of tobacco smoke so clearly they aren’t using the charge to clean the room.  I have stayed here about 6 times over 3 months while I search for a home in Los Amgeles.  On weekends there is only one person working and they have to do things all over the property so your wait time could get lengthy if you need something.  This is also the most unfriendly staff at the front desk in any of the 10+ ESA hotels I have stayed in.  Unfortunately I have thenm booked for the next two nights without refund or I would look elsewhere.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r590395001-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
-  </si>
-  <si>
-    <t>32341</t>
-  </si>
-  <si>
-    <t>225788</t>
   </si>
   <si>
     <t>590395001</t>
@@ -179,16 +296,10 @@
 Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the...As a TripAdvisor reviewer, I should have known to pay more attention to reviews. I made the mistake of assuming that LAX-area hotels set up for longer stays were pretty much on the same level, and found that this is not the case!Our first clue was upon arrival at this property. Okay, there was a sign that said “lobby”... but where was the lobby? Everything was dark - apparently the Extended Stay doesn’t leave the light on for you after hours. My husband finally got out of the car and found a sign that said to call. A light came on, and after-hours agent Glenda came to let us in. Glenda actually proved to be very friendly and helpful, and helped us bring our bags to the room since Extended Stay doesn’t bother to provide luggage carts for their guests. This was not a great start, and we were already exhausted after a long, delayed flight.Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the stove burners worked. I’ve included pictures showing the lack of charging ports, the kitchen supplies and the items I had to buy or make myself that the hotel didn’t provide, including a do-not-disturb sign. Really, guys?The following morning, one of the housekeepers advised me not to leave used towels outside our room door, or that would be considered “damage” to hotel property. Gee, it would have been nice to have a sign letting guests know that they should leave their towels in the red bin outside!The whole vibe of this property is not “welcome to our hotel”, but “we’re going to provide as little service as we can get away with, and we don’t trust you not to steal our cheap kitchen stuff”.The one good thing about this stay was the friendliness and helpfulness of a few of the staff members, including Glenda, Tony and Brandy. However, this is not enough for me to consider returning to this property, since there is a nicer and affordable Marriott Towne Place and a Springhill Suites within about a mile of this hotel. Caveat emptor.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
   </si>
   <si>
     <t>As a TripAdvisor reviewer, I should have known to pay more attention to reviews. I made the mistake of assuming that LAX-area hotels set up for longer stays were pretty much on the same level, and found that this is not the case!
@@ -196,9 +307,6 @@
 Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the...As a TripAdvisor reviewer, I should have known to pay more attention to reviews. I made the mistake of assuming that LAX-area hotels set up for longer stays were pretty much on the same level, and found that this is not the case!Our first clue was upon arrival at this property. Okay, there was a sign that said “lobby”... but where was the lobby? Everything was dark - apparently the Extended Stay doesn’t leave the light on for you after hours. My husband finally got out of the car and found a sign that said to call. A light came on, and after-hours agent Glenda came to let us in. Glenda actually proved to be very friendly and helpful, and helped us bring our bags to the room since Extended Stay doesn’t bother to provide luggage carts for their guests. This was not a great start, and we were already exhausted after a long, delayed flight.Our room was old and tired, with a rackety air-conditioning unit, no charging ports, and a bare kitchen. What??? As it turns out, you have to request kitchen supplies from the office during business hours. There was a little sign promising “a clean, custom kitchen”. What this really meant was 2 each of large and small plates, bowls, cups and silverware arriving in a wet plastic tub, along with a couple of cheap, scratched-up Teflon pans. Oh, by the way... neither of the stove burners worked. I’ve included pictures showing the lack of charging ports, the kitchen supplies and the items I had to buy or make myself that the hotel didn’t provide, including a do-not-disturb sign. Really, guys?The following morning, one of the housekeepers advised me not to leave used towels outside our room door, or that would be considered “damage” to hotel property. Gee, it would have been nice to have a sign letting guests know that they should leave their towels in the red bin outside!The whole vibe of this property is not “welcome to our hotel”, but “we’re going to provide as little service as we can get away with, and we don’t trust you not to steal our cheap kitchen stuff”.The one good thing about this stay was the friendliness and helpfulness of a few of the staff members, including Glenda, Tony and Brandy. However, this is not enough for me to consider returning to this property, since there is a nicer and affordable Marriott Towne Place and a Springhill Suites within about a mile of this hotel. Caveat emptor.More</t>
   </si>
   <si>
-    <t>8moreinc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r562260784-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -229,9 +337,6 @@
     <t>1. How come this woman can be their front desk rep.? Need to be training otherwise they will lose customers for sure.2. Gave the room with one FULL size bed to my wife and me, are you kidding me???3. The room is smell and not clean, we got itch for 3 days after checked out.More</t>
   </si>
   <si>
-    <t>midspark</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r547783647-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -262,7 +367,55 @@
     <t>The ladies at the front desk are great, but the accommodations here are very poor if you plan to stay for more than several days. First reason, the wifi is extremely bad. My phone and tablet could never connect to it. I even paid for the upgrade, and there was no improvement. Second reason, the no-smoking rule is very poorly enforced. My neighbor in the next room smoked. He regularly stood in the doorway smoking, and there were cigarette butts on the sidewalk outside his door. I even called it in to report it. They said they would take care of it, but he continued to smoke. The neighbor next to him also smoked. I saw them while they were standing in the hallway. This meant that I had to turn on the AC, which is a horrible waste of power in November &amp; December, but if I left my windows open, my room would smell of cigarette smoke. And the third reason is that the establishment offers breakfast, but in the last 1-2 weeks of the month, they run out of breakfast items (granola bars, oatmeal, muffins) and don't restock their inventory until the next month. Even if you are there first thing in the morning at 6am, they are clean out and only have coffee available. While the people who work here are friendly and I'm grateful that the establishment is pet friendly, I recommend staying somewhere else--especially...The ladies at the front desk are great, but the accommodations here are very poor if you plan to stay for more than several days. First reason, the wifi is extremely bad. My phone and tablet could never connect to it. I even paid for the upgrade, and there was no improvement. Second reason, the no-smoking rule is very poorly enforced. My neighbor in the next room smoked. He regularly stood in the doorway smoking, and there were cigarette butts on the sidewalk outside his door. I even called it in to report it. They said they would take care of it, but he continued to smoke. The neighbor next to him also smoked. I saw them while they were standing in the hallway. This meant that I had to turn on the AC, which is a horrible waste of power in November &amp; December, but if I left my windows open, my room would smell of cigarette smoke. And the third reason is that the establishment offers breakfast, but in the last 1-2 weeks of the month, they run out of breakfast items (granola bars, oatmeal, muffins) and don't restock their inventory until the next month. Even if you are there first thing in the morning at 6am, they are clean out and only have coffee available. While the people who work here are friendly and I'm grateful that the establishment is pet friendly, I recommend staying somewhere else--especially if it needs to be an extended stay.More</t>
   </si>
   <si>
-    <t>Fiontly</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r543701911-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>543701911</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>I was in a very unhealthy hotel because of Cigarette smoke</t>
+  </si>
+  <si>
+    <t>My experience with this hotel was a nightmare, I ended up going to emergency care because of second hand smoke coming from the next room. I never want to experience anything like this again, my health means a lot to meMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>My experience with this hotel was a nightmare, I ended up going to emergency care because of second hand smoke coming from the next room. I never want to experience anything like this again, my health means a lot to meMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r536823518-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>536823518</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Not great, no amenities, old and a little dirty.</t>
+  </si>
+  <si>
+    <t>Stayed for one night on a light arrival at LAX from LHR. Good location from airport, and a ralphs, five guys and subway across the road are handy if you're checking in late.The beds were comfy enough and the bathroom spacious, but that's about the extent of the good stuff.  The room was dated, dirty and smelled of stale smoke and damp, there were no cups, plates, well nothing at all really.  We had two towels in the bathroom and not a stitch else. Its fine for one night, but if you're staying any longer its not a nice place to stay. Had free coffee at the lobby, and a small grab breakfast of muffins and porridge. The lady at the front desk was very abrupt and patronising. She was talking to us like we were aliens. I know we're not American but we do speak English!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for one night on a light arrival at LAX from LHR. Good location from airport, and a ralphs, five guys and subway across the road are handy if you're checking in late.The beds were comfy enough and the bathroom spacious, but that's about the extent of the good stuff.  The room was dated, dirty and smelled of stale smoke and damp, there were no cups, plates, well nothing at all really.  We had two towels in the bathroom and not a stitch else. Its fine for one night, but if you're staying any longer its not a nice place to stay. Had free coffee at the lobby, and a small grab breakfast of muffins and porridge. The lady at the front desk was very abrupt and patronising. She was talking to us like we were aliens. I know we're not American but we do speak English!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r534824261-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -283,9 +436,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded October 21, 2017</t>
   </si>
   <si>
@@ -295,9 +445,6 @@
     <t>Stayed in 1 night. Close to LAX with many food choice around. A simple basic double room with some basic kitchenette, nothing much to complaint as i was check in late at the night and checkout early in the morning. Wifi service is poor.More</t>
   </si>
   <si>
-    <t>diva2017132</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r529242710-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -313,9 +460,6 @@
     <t>I love Extended Stay Hotels in general, but this location was the most convenient. There is a Ralphs grocery store, Starbucks &amp; Chase bank right across the parking lot, Several places to eat across the street, The front desk, Maricella &amp; Seth the GM, were great.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded October 3, 2017</t>
   </si>
   <si>
@@ -325,9 +469,6 @@
     <t>I love Extended Stay Hotels in general, but this location was the most convenient. There is a Ralphs grocery store, Starbucks &amp; Chase bank right across the parking lot, Several places to eat across the street, The front desk, Maricella &amp; Seth the GM, were great.More</t>
   </si>
   <si>
-    <t>Colleen R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r523620336-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -352,7 +493,46 @@
     <t>I'll be brief since we only stayed one night.  First off, it's an "extended stay" with a kitchen with absolutely no amenities. They say to call and get what you need but why and how do I know what I need. Here is not a coffee pot or coffee cups, so I had to get that, then somewhere along the way I realized I needed some silverware and drinking cups, a blanket, sheets for the pull out... the list goes on. Also, while we're at it, the pull out: oh my goodness!! It's a no.. very dirty but we had to use it since we had our 18 year old son with us... that was the brief review. All I can say is go somewhere else. There is a nice comfort suites not far away - go there... one more thing, wifi is awfulMore</t>
   </si>
   <si>
-    <t>Dorothy C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r510306191-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>510306191</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not my cup of tea </t>
+  </si>
+  <si>
+    <t>Definitely not my cup of tea.  This place is no frills. Literally. The staff was pleasant at the front desk. The rooms are dated. Bed is not comfortable. Pillows were horrible. No elevator. The one plus was that it's located near the airport. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Definitely not my cup of tea.  This place is no frills. Literally. The staff was pleasant at the front desk. The rooms are dated. Bed is not comfortable. Pillows were horrible. No elevator. The one plus was that it's located near the airport. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r510124006-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>510124006</t>
+  </si>
+  <si>
+    <t>Excellant Choice Hotel !!</t>
+  </si>
+  <si>
+    <t>Very Pleased with the Hotel , All the Staff was Pleasant and accomodating ! The Area Very Convienient to go anywhere . Close to the Airport . Very Safe Area !!! We Highly Recommend this Area and Hotel !!! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Very Pleased with the Hotel , All the Staff was Pleasant and accomodating ! The Area Very Convienient to go anywhere . Close to the Airport . Very Safe Area !!! We Highly Recommend this Area and Hotel !!! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r510379256-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -361,30 +541,15 @@
     <t>510379256</t>
   </si>
   <si>
-    <t>08/08/2017</t>
-  </si>
-  <si>
     <t>dont book here</t>
   </si>
   <si>
     <t>If you are seeing this to book and impressed by the pictures on the website. They are not what you will get in the El Segundo location!  It is filthy!  It is close to LAX but not worth the money! If I hadn't have been exhausted from an international flight I would have gone to another place!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded August 9, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 9, 2017</t>
-  </si>
-  <si>
     <t>If you are seeing this to book and impressed by the pictures on the website. They are not what you will get in the El Segundo location!  It is filthy!  It is close to LAX but not worth the money! If I hadn't have been exhausted from an international flight I would have gone to another place!More</t>
   </si>
   <si>
-    <t>saminderc2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r509754101-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -409,9 +574,6 @@
     <t>Customer service is very poor. Room were clean but had smell in it. Front seat staff is not at all helpful and is rude. They say breakfast is included but they only provide muffins. There is kotheing else for breakfast. Would never like to stay here again.More</t>
   </si>
   <si>
-    <t>Ask Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r509610945-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -436,7 +598,52 @@
     <t>I stayed here for about 5 days with my wife.  Nice quiet hotel, no discernible airport noise, pleasant staff, reasonably clean.  plenty of parking and right next to 2 starbucks a ralph's and a chase atm.  wtf else do you need?We chose this because they allow smoking in some rooms.More</t>
   </si>
   <si>
-    <t>ashrutibhattarail</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r506844321-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>506844321</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t>Unhappy with experience;  see previous comments.  Did not give us the room we reserved;  changed our reservations without first consulting us.  Separated my husband and me and staff attitude was they were doing us a favor by not charging us for one of those rooms that we did not reserve.  Fan in room not good no hot water in shower. We were placed in smoking area and wanted non smoking.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Unhappy with experience;  see previous comments.  Did not give us the room we reserved;  changed our reservations without first consulting us.  Separated my husband and me and staff attitude was they were doing us a favor by not charging us for one of those rooms that we did not reserve.  Fan in room not good no hot water in shower. We were placed in smoking area and wanted non smoking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r502475105-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>502475105</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Overbooked!!!</t>
+  </si>
+  <si>
+    <t>Even though we had booked this hotel 2 weeks in advance and prepaid, we were told no room were available for us upon arrival. No attempt was made to help us with another hotel. We had to call out travel agent!!! This is really terrible when you arrive after a long trip and kids. I do not recommend them at all!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Even though we had booked this hotel 2 weeks in advance and prepaid, we were told no room were available for us upon arrival. No attempt was made to help us with another hotel. We had to call out travel agent!!! This is really terrible when you arrive after a long trip and kids. I do not recommend them at all!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r499825213-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -454,9 +661,6 @@
     <t>the room was filthy with toys from previous guests laying under the bed. it had hairs and had stains all over the bed. the room had no utensils. Generally ESA provides the utensils in the room. the only thing pleasant was the lady at the front desk.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 9, 2017</t>
   </si>
   <si>
@@ -466,9 +670,6 @@
     <t>the room was filthy with toys from previous guests laying under the bed. it had hairs and had stains all over the bed. the room had no utensils. Generally ESA provides the utensils in the room. the only thing pleasant was the lady at the front desk.More</t>
   </si>
   <si>
-    <t>Jamey D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r497245717-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -496,9 +697,6 @@
     <t>I actually liked the Extended Stay America quite a bit. I mostly liked it for the location. You can walk to several restaurants including an In-N-Out, and there's a Ralph's nearby. The room we got is a basic studio. The kitchen is a nice place to sit, the shower is good, and the bed is comfortable. The sofa bed has a weird plastic case on it, and did not come with the sheets; I had to ask for them the second night.So there are several flaws with the hotel I want to point out. If they can fix those flaws, then this will be a perfect extended stay hotel. Flaw #1: The WiFi is a bit slow. It could use some boosting. Flaw #2: I wish they'd have the coffee during breakfast 24/7. Flaw #3: The breakfast is garbage. Only a few muffins in plastic. Flaw #4: The bathroom door lock in my room was broken. I don't remember the room number, but it's on the main building, is the first floor, is near the west stairs, and faces south. Fix all that, and we're golden.Yes, I think this is a great hotel. It's more than I expected.More</t>
   </si>
   <si>
-    <t>Okirua E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r495262392-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -523,7 +721,55 @@
     <t>Extended Stay America El Segundo is an exceptional Stay in LA. They consistently cater and satisfy my needs whenever I'm there. My first pick for stays around LAX.  10/10 Extended Stay America El Segundo More</t>
   </si>
   <si>
-    <t>Meghanizer</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r494732013-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>494732013</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Pricey for a 1 star hotel</t>
+  </si>
+  <si>
+    <t>The hotel needs updating and guest shouldn't be smoking outside of their room. Traveled there with a baby and was put in a second floor with a king bed instead of two double that I prepaid for. Definitely would not recommend and will not return to this hotel/motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>The hotel needs updating and guest shouldn't be smoking outside of their room. Traveled there with a baby and was put in a second floor with a king bed instead of two double that I prepaid for. Definitely would not recommend and will not return to this hotel/motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r490789977-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>490789977</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Far from the Convention Center, No Cooking Implements</t>
+  </si>
+  <si>
+    <t>The location was excellent in that it is right next to Ralph's supermarket.  It is also around the corner from IHOP and across the street from other eateries and stores.  There is also a 7-11 very nearby.  However, if a guest actually wanted to cook anything, they would have to bring their own pots, pans, and any other needed cooking implements, because none are provided.  An ashtray also wasn't provided in my smoking room and I had to request one.  Overall, service was good.  The room itself was below average, but clean enough to meet my needs.  If I were going there for another similar conference, I wouldn't stay there because of the distance from the convention center and the difficulty of public transport.  Uber worked fantastically, though, and I used them every day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>The location was excellent in that it is right next to Ralph's supermarket.  It is also around the corner from IHOP and across the street from other eateries and stores.  There is also a 7-11 very nearby.  However, if a guest actually wanted to cook anything, they would have to bring their own pots, pans, and any other needed cooking implements, because none are provided.  An ashtray also wasn't provided in my smoking room and I had to request one.  Overall, service was good.  The room itself was below average, but clean enough to meet my needs.  If I were going there for another similar conference, I wouldn't stay there because of the distance from the convention center and the difficulty of public transport.  Uber worked fantastically, though, and I used them every day.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r490233975-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -553,9 +799,6 @@
     <t>The room was ok. It had a small kitchenette. I had to ask for pots, pans, and dishes. They didn't tell me this when I checked in so, for the first few weeks, I just didn't use the kitchenette. It would have been nice if they told me at check-in that these items were available for the asking. I saw someone even had a toaster so maybe I could have asked for a toaster too??The "breakfast" barely counted as food. It consisted of oatmeal, granola bar, and coffee. I had to go to the office every day to see if I got mail. It would be nice if they lit the light on your phone to tell you that you have mail.The smoke detector was broken and they never fixed it the entire time that I was there. I gave up complaining about it.More</t>
   </si>
   <si>
-    <t>Ashwin M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r486714684-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -571,9 +814,6 @@
     <t>Stayed in this hotel for 2 days before my flight out of LAX. Have a super market and multiple food joints near by. Its quite far from most of the attractions if you are planning to go out. The room was quite old but was clean and didnt have any issues. Staff were very friendly and helpful.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded May 23, 2017</t>
   </si>
   <si>
@@ -583,9 +823,6 @@
     <t>Stayed in this hotel for 2 days before my flight out of LAX. Have a super market and multiple food joints near by. Its quite far from most of the attractions if you are planning to go out. The room was quite old but was clean and didnt have any issues. Staff were very friendly and helpful.More</t>
   </si>
   <si>
-    <t>susanhersheyusa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r476970167-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -613,7 +850,43 @@
     <t>this hotel has it all, nice rooms that feel homey, kitchen in room, location nearLAX the beach great shopping and restaurants and clubs. Lots of privacy and quiet location. Great TV selection outstanding clean property and fabulous staff. You can bring your dog here. Not many hotels where you can do that !More</t>
   </si>
   <si>
-    <t>dietitiantothestars</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r459248553-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>459248553</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>It's ok.</t>
+  </si>
+  <si>
+    <t>This is a reasonably average hotel. The location is decent, close to the airport, grocery store and several good food options. The rooms are clean and the kitchen could be great however unfortunately mine didn't come equipped with anything. No plates, cutlery pots or pans or anything to cook with other than the microwave. I would stay again because the price is right and some small tweaks would help for sure.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r453241726-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>453241726</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Any port in a storm</t>
+  </si>
+  <si>
+    <t>After a series of delays, we missed a flight and had to spend a night in LA. This hotel is close to the airport, and the staff was friendly. The only other thing that allows me to give it three stars instead of two is its proximity to a 24 hour supermarket just across the parking lot. Aside from that, this is an adequate shelter for a night, but not anything you would deliberately choose. It has a kitchenette, but no plates, cups or utensils. Cabinets and bath fixtures were worn and needed sprucing up. The hair dryer did not work, but the staff sent a replacement pretty quickly. A little attention could improve this lodging a great deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>After a series of delays, we missed a flight and had to spend a night in LA. This hotel is close to the airport, and the staff was friendly. The only other thing that allows me to give it three stars instead of two is its proximity to a 24 hour supermarket just across the parking lot. Aside from that, this is an adequate shelter for a night, but not anything you would deliberately choose. It has a kitchenette, but no plates, cups or utensils. Cabinets and bath fixtures were worn and needed sprucing up. The hair dryer did not work, but the staff sent a replacement pretty quickly. A little attention could improve this lodging a great deal.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r446940201-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -640,9 +913,6 @@
     <t>I lived here for some time. There are some advantages, mainly location and towel/linen service.  The are some big cons which unfortunately outweigh the positives.  The main disadvantage is the rude manager Seth.  Advantage:  the super nice and efficient assistant manager Daisy.  Disadvantage:  Rooms are NOT cleaned well.  Advantage:  the maintenance man Juan is quite competent and efficient (speak to him directly if you really need something done in your room).  Disadvantage: If you complain about anything they increase your room rate.  If you sign up for two months in a row and pay up front, they will lock in a particular rate for you.  Disadvantage:  Police are often called to the premises for "domestic disputes" or drug deals or vandalism.  My friend came to visit on night and her car was viciously keyed all the way around.  Disadvantage:  Cigarette SMOKE:  supposedly they have designated Building #3 for smokers but they allow smokers to freely smoke everywhere on the premises.  This sucks big time as that smoke enters non-smokers rooms with abandon.  Management's response:  Too bad!  I wound up complaining to the City Council who told me to call the police when this happened.  This did not make me very popular as you can imagine and I had to move out.More</t>
   </si>
   <si>
-    <t>Griffin S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r446014411-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -661,9 +931,6 @@
     <t>We stay here for 2 days in november. It's Clean and have parking inside. Very near to LA airport. Large room with kitchen and table for lunch or dinner. In the hall in the morning coffee and snack for breakfast. Pet friendly. Good More</t>
   </si>
   <si>
-    <t>craig_traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r435740864-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -688,7 +955,46 @@
     <t>I have stayed here twice now and its always been a solid experience: clean rooms with kitchens, free parking, free internet, and right next door to a supermarket and Starbucks.  Fast food and other options are across the street.  I noticed that the reception desk closes at 11pm, so I'm unsure as to how ate check ins work.  In any event, the property is easy access to freeways, LAX, and not too far from beaches.More</t>
   </si>
   <si>
-    <t>Kimberly T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r429521322-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>429521322</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>OK place and would stay here again.</t>
+  </si>
+  <si>
+    <t>I've stayed here before due to the location, it's nothing to rave about but is clean and comfortable, and the staff are helpful and friendly. My room had a very strong smell of old Asian cooking (especially in the fridge) so reception staff gave me some Febreeze to get rid of that, and it took a LOT. There's no restaurant here (they do provide breakfast tea/coffee, muffins and museli bars) but there's heaps of restaurants over the road, and a big supermarket next door and kitchen in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed here before due to the location, it's nothing to rave about but is clean and comfortable, and the staff are helpful and friendly. My room had a very strong smell of old Asian cooking (especially in the fridge) so reception staff gave me some Febreeze to get rid of that, and it took a LOT. There's no restaurant here (they do provide breakfast tea/coffee, muffins and museli bars) but there's heaps of restaurants over the road, and a big supermarket next door and kitchen in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r429096247-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>429096247</t>
+  </si>
+  <si>
+    <t>Perfect for families or singles on the go and want to feel at home</t>
+  </si>
+  <si>
+    <t>I have 4 girls, 11,8,3&amp;2yo. This place was clean and very close to everything we needed aCvs and places to eat late at night. My husband would jump in the car and be back in no time with our requests. Staff is great and nobody bothers you. We felt safe and the room was comfortable and so convenient for us. Definitely recommend it to any looking for a air bnb or hotel option.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r412919787-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -718,9 +1024,6 @@
     <t>Room was clean and was in a good area. Close to LAX. Good hotel and area for the price. But advertise Breakfast included?? Not even continental breakfast. Coffee and granola bar. I was expecting at least a boiled egg or a bagel. When I asked I was dismissed. The staff was lacking personality. But all in all it was a good stay. There are plenty of restaurants in the area for any meals. Starbucks and In and Out within walking distance. Grocery store next door.More</t>
   </si>
   <si>
-    <t>AimeeBeing</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r406785959-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -745,9 +1048,6 @@
     <t>I was traveling with my elderly mother and booked a room 2 weeks in advance - disabled accessible, 2 beds, smoking allowed.We got to the hotel and were told that the room we reserved wasn't available, that we were being given a nonsmoking room with one bed on the second floor (no elevator). But, the lady behind the desk said, there was a pull-out sofa. So I had the pleasure of sleeping on the most uncomfortable bed-type-thing known to man and carting heavy luggage up and down stairs. My back was a wreck for a week. I had booked the room at a 20% discount but the bill the staff person handed me to sign when we checked in was for full price. I pointed this out to the lady and she said the discount would be taken off at check out. It would be nice if she'd told me that before asking me to sign. Then when we got to our room there were none of the kitchen amenities advertised. The refrigerator was off and there were no plates, pots, pans, utensils, coffee maker, etc. All that said, the room was clean, the AC/heating worked and the window opened all the way.More</t>
   </si>
   <si>
-    <t>Karen W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r403215073-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -763,7 +1063,46 @@
     <t>Missed our connection at LAX due to the Delta debacle, hotels were selling out fast, close to airport, room was clean, bed was comfy, grab and go breakfast not fancy but adequate, good coffee and staff very nice. Constuction right outside my building but I never heard it, 24 hour store within walking distance, I would stay here again in a pinch. No coffee maker in rooms so that was a bummer but overall good stay for one night.</t>
   </si>
   <si>
-    <t>dondymc46</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r402247091-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>402247091</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Nice place, but some drawbacks</t>
+  </si>
+  <si>
+    <t>The facility is nice and clean, though it's beginning to need a facelift. My first night was on the second story in the third building. Pretty nice. I was awoken at 3:00 AM due to the unloading and stocking of the adjacent Ralph's supermarket. Very loud - forklifts running, employees yelling, pallets being loudly stacked, and much of this done on the fire lane for the hotel. I asked for a room change away from the market, but they could not accommodate me until the following evening, so I had to experience this all over again at 3:00 AM. They moved me to the front building and I finished my week very comfortably. The "grab and go" breakfast wasn't much to brag about - hot drinks, hot cereal packages and packaged muffins. Also, on bust afternoons, the front desk only had one person though ywo terminals were available. This made for very slow processing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>The facility is nice and clean, though it's beginning to need a facelift. My first night was on the second story in the third building. Pretty nice. I was awoken at 3:00 AM due to the unloading and stocking of the adjacent Ralph's supermarket. Very loud - forklifts running, employees yelling, pallets being loudly stacked, and much of this done on the fire lane for the hotel. I asked for a room change away from the market, but they could not accommodate me until the following evening, so I had to experience this all over again at 3:00 AM. They moved me to the front building and I finished my week very comfortably. The "grab and go" breakfast wasn't much to brag about - hot drinks, hot cereal packages and packaged muffins. Also, on bust afternoons, the front desk only had one person though ywo terminals were available. This made for very slow processing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r390142449-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>390142449</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Hoorible</t>
+  </si>
+  <si>
+    <t>Horrible. To avoid. Room was dirty when we arrived, THERE WAS BLOOD everywhere  in the bathroom and the room was a big mess. I was told I couldn't have a different room so I had to wait until it was cleaned. I was also refused a refund for the night. Staff is rude</t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r389098131-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -781,12 +1120,6 @@
     <t>will not stay there again vehicles allowed to back into parking stalls so when they start the car exhaust goes into room threw air conditioner air vent or the one inch gap below door. the carpets are the worst i have ever seen feet sticking to floor and walking right out of them white socks no longer white. house keeping needs to go to training they are better off just giving you cleaning cart. Dishes given to me to use still had food stuck to them so much more to say but wont.</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>Kevin C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r382750734-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -811,9 +1144,6 @@
     <t>*Great front desk staff*Quiet property in spite of being located at busy intersection *Comfortable and fully stocked rooms *the value we received far exceeded the cost, would definitely stay here again....More</t>
   </si>
   <si>
-    <t>emtaika</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r382555850-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -832,7 +1162,46 @@
     <t>The man at desk was not in a good mood and not helpful.  I had to ask for everything. He set us up beside a room with a barking pet.  Went back to lobby and a lady changed my room. Next day, no water because of maintenance so this is how I found out the maid service was only once a week and changing towels needed to be done at lobby.  It was mentioned free parking, free internet, free breakfast. Lobby is very small and coffee (with coffee mate !!!) is set up on a small table with small greasy pre-packaged muffins.  This is NOT breakfast it is complimentary snack and coffee. A few days later we had a note on our door indicating that the hotel now charges a fee of 15$ per night for parking.  We left the next day and I showed my reservation paper and the lady at the desk did not charge me.  I was charged almost 4$ for 3 local phone calls.   The rooms are small but clean and efficient enough,  good if you are around to sleep only. A grocery store was right by so that was also good.  Wi-fi was great.More</t>
   </si>
   <si>
-    <t>SBusby</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r381641746-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>381641746</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent Place </t>
+  </si>
+  <si>
+    <t>Went back to our old home town for a visit and this was the best priced hotel that I wouldn't call a tweaker place. Going to El Segundo during the week is very expensive because of the corporate world that is located there. We need a room on a Tuesday night DoubleTree was full Hacienda is no longer there and being converted. And they wanted over $300 and night just about everywhere else. Our room was clean it was very quiet and the front desk staff was friendly. They did mention they are going to be charging for parking which I think is ridiculous. Wi-Fi was okay A bit slow but you can pay to upgrade. There were a few shady people in the parking lot when we pulled in, which did not make my husband very happy, but we did not have any problems. Convenient location lots of restaurants close by within walking distance as well as a grocery store and banks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Went back to our old home town for a visit and this was the best priced hotel that I wouldn't call a tweaker place. Going to El Segundo during the week is very expensive because of the corporate world that is located there. We need a room on a Tuesday night DoubleTree was full Hacienda is no longer there and being converted. And they wanted over $300 and night just about everywhere else. Our room was clean it was very quiet and the front desk staff was friendly. They did mention they are going to be charging for parking which I think is ridiculous. Wi-Fi was okay A bit slow but you can pay to upgrade. There were a few shady people in the parking lot when we pulled in, which did not make my husband very happy, but we did not have any problems. Convenient location lots of restaurants close by within walking distance as well as a grocery store and banks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r372850173-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>372850173</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Basic Convenient Hotel from LAX</t>
+  </si>
+  <si>
+    <t>This hotel was only about 10 minutes from LAX and it was convenient for an over night stay after a long flight. Our room had a queen size bed and a small kitchenette (standard for Extended Stay) The room was clean and functional Across the street is a small strip mall with an good assortment of cafe type eateries. After a flight we were tired and looking for something simple and the choices there fit the bill. Next door is a Ralph's Supermarket if you need any snacks, drinks etc. The only disappointment was the "free breakfast" On a stand, in the office, is a coffee urn, small cello wrapped mini muffins and granola bars. Not really worth advertising as a breakfast. Overall, it was fine for an airport stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was only about 10 minutes from LAX and it was convenient for an over night stay after a long flight. Our room had a queen size bed and a small kitchenette (standard for Extended Stay) The room was clean and functional Across the street is a small strip mall with an good assortment of cafe type eateries. After a flight we were tired and looking for something simple and the choices there fit the bill. Next door is a Ralph's Supermarket if you need any snacks, drinks etc. The only disappointment was the "free breakfast" On a stand, in the office, is a coffee urn, small cello wrapped mini muffins and granola bars. Not really worth advertising as a breakfast. Overall, it was fine for an airport stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r371315333-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -856,9 +1225,6 @@
     <t>We stayed here for two nights this past week - our bed sheets were dirty, there was someone else's hair in the shower and food in the refrigerator. We were given no shampoo or conditioner or body wash and on our second day a maid never entered our room so we were given no clean towels. They also advertised this fabulous continental breakfast and when we arrived for breakfast there was only one package of oatmeal, packaged muffins and some moldy looking oranges. Very dissatisfied with our visit. We truly believe that our room was not cleaned before we entered it and we will never return nor will we ever let someone we know stay at the hotel.More</t>
   </si>
   <si>
-    <t>Tiffany H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r366705837-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -886,9 +1252,6 @@
     <t>This hotel was very clean, but it only had the bare minimum. The free breakfast consisted of instant oatmeal and cereal bars only. The location was nice because of a grocery store and in-n-out within walking distance. The staff was friendly. More</t>
   </si>
   <si>
-    <t>Armen M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r365281352-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -913,7 +1276,46 @@
     <t>The location itself was great, as it was near a supermarket, a number of eateries, and a Starbucks.  They were all within a five minute walking distance.  The room itself was clean, well maintained, and though I only stayed a night, it seemed like an extended stay here would be sensible.  The kitchen had two burners and a microwave, as well as a decent refrigerator. The bathroom was relatively spacious, though the water pressure in the shower was weak.  The staff, though courteous, were not often available and were at times, difficult to locate.  Though they offered continental breakfast, it's nothing more than some fruit, granola bars, and coffee.  The "free wifi" they offered was very slow, and if you wish to skype, use viber, or for even average internet speed usage, you're prompted to upgrade to a paid wifi." Overall, not a bad place that was booked from Priceline; close enough to LAX ($20 by taxi to get there, approximately $11 to get back to the airport), and in a decent location with many stores and shops.More</t>
   </si>
   <si>
-    <t>jim_from_sf</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r362669843-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>362669843</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Very convenient</t>
+  </si>
+  <si>
+    <t>They have clean little rooms that are good enough for a basic long-term stay. The room I stayed in was a comfortable mini studio with a small kitchen (stove, ref, microwave, utensils), bathroom with bathtub. It was also pretty convenient to have a 24-hour Ralph's and different dining outlets located next to it. The hotel is also just 5 to 10 minutes away from LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>They have clean little rooms that are good enough for a basic long-term stay. The room I stayed in was a comfortable mini studio with a small kitchen (stove, ref, microwave, utensils), bathroom with bathtub. It was also pretty convenient to have a 24-hour Ralph's and different dining outlets located next to it. The hotel is also just 5 to 10 minutes away from LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r358031895-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>358031895</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>2nd Stay in LA</t>
+  </si>
+  <si>
+    <t>This is my 1st time at this hotel, my room (168) was like a 1 bedroom apartment. The king size bed is large enough to sleep 3 people, bathroom is nice with wood floor. I love the room has a mini kitchen with eating area, full refrigerator, microwave, stove, &amp; sink. There is no need to eat out, buy groceries (like I did). You can request utensils from office. The hotel is located on the east side of the airport, you may hear the airplane's engines as they take off but it not annoying.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r347522663-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -943,9 +1345,6 @@
     <t>The location in El Segundo right off the 105 freeway is convenient. Not far from the beach, either. And there's free parking, a rarity in the LA area now.However, our room (a Queen non-smoking room) was small, smelled strange (probably from a chemical used to mask a previous smoker), and although it was a suite with a kitchenette, it had absolutely NO utensils of any kind: not even a cup to drink water from. Absolutely nothing. You need to ask the front desk for everything, and she seemed constantly overwhelmed as there was only one staff member to do everything. The iron stained our clothes as well. And it's not a cheap place to stay: not really a good value.More</t>
   </si>
   <si>
-    <t>jmack50</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r346008570-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -973,9 +1372,6 @@
     <t>Extended stay is five minute drive to LAX. Tidy little rooms with full fridge, kitchenette , microwave and kitchen utensils on request. It is beside Ralph's supermarket and has bank Starbucks and may eateries within 5 minute walk excellent location.More</t>
   </si>
   <si>
-    <t>S_Hazeltine</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r344641311-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -991,7 +1387,46 @@
     <t xml:space="preserve">The hotel has no outstanding qualities. Cleaning Service is weekly for extended stays. Cheap for the area. The best thing is that it's within walking distance of grocery and restaurants. It's located in a very safe location. Parking is adequate. Rooms are clean. I would stay again if only for the rates. </t>
   </si>
   <si>
-    <t>kobecat1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r341313888-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>341313888</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>The room was not very clean... There were noticeable cobwebs in the bathroom, streaming from the light to the walls... The floors were dirty, I was stepping on things that should have been vacuumed... They got our room incorrect... we booked a non-smoking suite for five people and got a smoking suite because that is what they had in their "system"... we ended up with a non-smoking with two beds and the front desk was nice enough to not charge us for an extra bed...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r321497490-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>321497490</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>toilet was blocked</t>
+  </si>
+  <si>
+    <t>Toilet was blocked and overflowed, no other room was given to us and no refund given.  We continued to ask for our refund when we arrived home and they said we did not stay in that room number which had the bocked toilet.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Toilet was blocked and overflowed, no other room was given to us and no refund given.  We continued to ask for our refund when we arrived home and they said we did not stay in that room number which had the bocked toilet.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r320528398-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1009,9 +1444,6 @@
     <t>Two couples booked here for an overnight prior to flying home to Australia and used a consolidator site. Beds were like bricks, continental breakfast is a joke, our hairdryer did not work and our friends' toilet overflowed. Cleaners told them the plumbing had been a problem for weeks. Told us to go to the other site if we wanted any action, Extended Stay only offered a discount voucher for a future stay! Oh really, like we would stay there again. I understand these things happen but the clearly knew of the problems. If customer service mattered to ES surely they would initiate the refund. Stairs were filthy, with cigarette butts everywhere. Not nice, don't stay there.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded October 28, 2015</t>
   </si>
   <si>
@@ -1021,9 +1453,6 @@
     <t>Two couples booked here for an overnight prior to flying home to Australia and used a consolidator site. Beds were like bricks, continental breakfast is a joke, our hairdryer did not work and our friends' toilet overflowed. Cleaners told them the plumbing had been a problem for weeks. Told us to go to the other site if we wanted any action, Extended Stay only offered a discount voucher for a future stay! Oh really, like we would stay there again. I understand these things happen but the clearly knew of the problems. If customer service mattered to ES surely they would initiate the refund. Stairs were filthy, with cigarette butts everywhere. Not nice, don't stay there.More</t>
   </si>
   <si>
-    <t>BaronMIke</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r308622654-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1039,9 +1468,6 @@
     <t>First off the location of the hotel is great.  There is plenty of parking and it is close to grocery stores, etc. The front desk staff was friendly and polite.It looks like they have some a few updates.  New paint, new flooring. which is where the good stops.There was a very en-grained smell of old cigarette smoke. It was a little musty in the room which made the smell stronger.  I think it was coming from the curtains. The bed was very uncomfortable, one of the worst mattresses i have slept on in years. The grout around the tub was filthy and was peeling away. the tub itself needs to be redone - all of the porcelean wrapping was peeling off and there is no way someone would want to take a bath in that tub.Over all, not the worst by any means, but I will look for a different place next time I am in El Segundo.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded September 30, 2015</t>
   </si>
   <si>
@@ -1051,9 +1477,6 @@
     <t>First off the location of the hotel is great.  There is plenty of parking and it is close to grocery stores, etc. The front desk staff was friendly and polite.It looks like they have some a few updates.  New paint, new flooring. which is where the good stops.There was a very en-grained smell of old cigarette smoke. It was a little musty in the room which made the smell stronger.  I think it was coming from the curtains. The bed was very uncomfortable, one of the worst mattresses i have slept on in years. The grout around the tub was filthy and was peeling away. the tub itself needs to be redone - all of the porcelean wrapping was peeling off and there is no way someone would want to take a bath in that tub.Over all, not the worst by any means, but I will look for a different place next time I am in El Segundo.More</t>
   </si>
   <si>
-    <t>Joseph C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r303049297-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1078,7 +1501,55 @@
     <t>Nice and clean . Service is excellent and Starbucks  , Ralphs  &amp; the Train Station  very  close to walk by . If you need ectra item you just call and go to the FrontDesk to pick up . No too far from LAX Airport  .More</t>
   </si>
   <si>
-    <t>Kalistud23</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r285095188-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>285095188</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Like sleeping in an ashtray</t>
+  </si>
+  <si>
+    <t>I was forced to search for a hotel to sleep in near the airport because my airline overbooked my flight and they asked me to book my own room so that they could reimburse me. Basically, I booked this hotel because they were the only ones that answered the phone and had availability. I requested a non-smoking room, but I received a smoking room, but I was so exhausted that I didn't care and slept the 3 hours anyway. The staff was really nice and that's about all this hotel had going for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>I was forced to search for a hotel to sleep in near the airport because my airline overbooked my flight and they asked me to book my own room so that they could reimburse me. Basically, I booked this hotel because they were the only ones that answered the phone and had availability. I requested a non-smoking room, but I received a smoking room, but I was so exhausted that I didn't care and slept the 3 hours anyway. The staff was really nice and that's about all this hotel had going for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r282510873-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>282510873</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible internet not reliable </t>
+  </si>
+  <si>
+    <t>Hotel room smelled funny and worse part internet which I paid extra for bandwidth has been down all evening! I've called 2x and second time I've been on hold for over 30 minutes. Also room has a kitchenette however there's no dishes or Silverware so not sure point of having it. No ice machine either.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Hotel room smelled funny and worse part internet which I paid extra for bandwidth has been down all evening! I've called 2x and second time I've been on hold for over 30 minutes. Also room has a kitchenette however there's no dishes or Silverware so not sure point of having it. No ice machine either.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r282359184-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1087,30 +1558,15 @@
     <t>282359184</t>
   </si>
   <si>
-    <t>06/23/2015</t>
-  </si>
-  <si>
     <t>Will NOT return</t>
   </si>
   <si>
     <t>The room had a smell to it and the room was NOT UP TO PAR. it was still dirty, the stove and the. Refrigerator  were NOT clean. So NOOOOOOOOOOOOOO I WILL NOT RETURN TO THIS PLACE AGAIN, THANK YOU have a nice dayMoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded July 8, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 8, 2015</t>
-  </si>
-  <si>
     <t>The room had a smell to it and the room was NOT UP TO PAR. it was still dirty, the stove and the. Refrigerator  were NOT clean. So NOOOOOOOOOOOOOO I WILL NOT RETURN TO THIS PLACE AGAIN, THANK YOU have a nice dayMore</t>
   </si>
   <si>
-    <t>Jewlsgrl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r275186008-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1138,9 +1594,6 @@
     <t>We stayed here while working at the refinery. Overall the stay was okay. You have to make an appointment to have your room cleaned if you work nights. You have to ask for towels and anything else you need. They have a nice laundry facility. Grocery store next door provides convenience. Beware if you check out before your extended stay is up you will be assessed a different rate. Rates are a lot higher being so close to the airport. Will eat up your full per diem check. Was scared one night by large man in suit and large man in dress with lots of wild make-up and huge wig. Co-workers saw them on different nights also. More</t>
   </si>
   <si>
-    <t>T L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r270257070-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1165,7 +1618,49 @@
     <t>The room was clean and looked fairly updated. Nothing super fancy, but the bed and furniture was comfortable enough. I did not have a problem with noise. The mini-kitchen and refrigerator were especially useful features given that the hotel is next door to a grocery store. This place is great for the cost-conscious traveler who wants a decent, no-frills hotel stay close to LAX. The only thing I wish it had was a shuttle service to the airport.More</t>
   </si>
   <si>
-    <t>cyclist16</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r259772886-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>259772886</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Lousy but affordable</t>
+  </si>
+  <si>
+    <t>Sink clogged.  Lightbulb burned out. Not so much as a paper cup or shampoo. Soap was thick as a dollar.  Towels akin to tree bark. Nice lady at the check-in desk, though.  And 24 hour grocery store right there.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Sink clogged.  Lightbulb burned out. Not so much as a paper cup or shampoo. Soap was thick as a dollar.  Towels akin to tree bark. Nice lady at the check-in desk, though.  And 24 hour grocery store right there.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r259650678-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>259650678</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Not A Bad Place To Stay If You're Homeless</t>
+  </si>
+  <si>
+    <t>The people who work behind the desk are as dumb and thoughtless as prison guards. The bed was as if you were sleeping on concrete. There is a kitchen but none of the utensils match and nothing appears to have been cleaned. No stoppage for the tub. And the fact that the room was booked for two days and a do not disturb sign was on the door, the housekeeper barged right in after a perfunctory knock. I wanted a kitchen and because this location offered a grocery store across the parking lot I was sold. Wrong on so many levels.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>The people who work behind the desk are as dumb and thoughtless as prison guards. The bed was as if you were sleeping on concrete. There is a kitchen but none of the utensils match and nothing appears to have been cleaned. No stoppage for the tub. And the fact that the room was booked for two days and a do not disturb sign was on the door, the housekeeper barged right in after a perfunctory knock. I wanted a kitchen and because this location offered a grocery store across the parking lot I was sold. Wrong on so many levels.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r259007909-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1183,12 +1678,6 @@
     <t>Not a bad place to stay if you want to be near the airport.  We recently had to catch an early morning flight to Hawaii and this was quite convenient and clean.  After taking a free shuttle, we hopped on a bus for $1.75 which took us right to this hotel.  There is even a super market you can walk to (right next door).  All in all, it made for an easy overnight stay.</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
-    <t>Mfshehri</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r255893587-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1207,9 +1696,6 @@
     <t>We booked our stay in Los Angeles in this hotel. We got a good deal so we decided to stay in it. The room was clean but smelled bad. The microwave was dirty and smelled really really bad!! Towels were obviously very old and not clean enough. I think they told their staff not to smile or to greet any guest but they were helpful. My 10 old son slept on the floor in the first night as they didn't have cribs and got one next day so you might need call and reserve one before. The bath tube is dusty and not clean. the bed was not comfy and make noise with any small movement on bed which was very annoying for us and the baby as well. Free internet and parking.Will not stay again and wouldn't recommend this hotel.More</t>
   </si>
   <si>
-    <t>John-W010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r244746391-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1237,7 +1723,37 @@
     <t>I have stayed at this hotel while traveling numerous times over the years. It has been recently remodeled and the rooms are clean and comfortable. Close to Los Angeles International airport, many restaurants close by and a super market right next door. Desk staff very helpful and courteous.More</t>
   </si>
   <si>
-    <t>Camda</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r236225510-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>236225510</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>The floors are always dirty</t>
+  </si>
+  <si>
+    <t>Two nights at this location. Do they mop the floors? They were dirty.  Mold in the shower. We stayed at the EXS in Stevenson's Ranch, CA, same thing, dirty floors. Also, could smell stale smoke in the room in El Segunda. The staff, in both locations, are very pleasant and helpful. Excellent restaurants within walking distance and a grocery store. I'm not convinced that many hotels are as clean as they should be.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r231736531-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>231736531</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Just gross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non smoking room smelled like smoke. Room had durty linen. Changed rooms this one had a different but unpleasant oder. Had a Nat in the refrigerator. Changed hotels asap. Would never stay here. Would not recommend it. </t>
+  </si>
+  <si>
+    <t>September 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r231023175-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1255,12 +1771,6 @@
     <t>We had two nights here as elsewhere in L.A overpriced. With a hire car, it was easy access to the airport and beaches and malls. Rooms are small but modern and clean. Supermarket next door open 24hrs and plenty of eateries nearby. Guest laundry on site, free parking, internet free and good connection. Staff helpful except we had noisy neighbours who left their TV on all night and upon calling reception at 3.00 a.m there was no manager on site so nothing could be done. Rooms could benefit from better lighting.</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
-    <t>tmcd433</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r221606509-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1279,9 +1789,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Adam W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r221398348-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1300,7 +1807,40 @@
     <t>I stayed here with my wife for two nights and everything worked out well. The proximity to LAX is ideal. Very short drive from the airport, but far enough that you don't hear the planes in your room. We also enjoyed the location because it's close to several of the beaches like Venice, Santa Monica, and Manhattan. The service was good, and the night manager showed up promptly to help us check in at 1:30 am. The only downside was the limited selection of the continental breakfast. But to be fair, it's an extended stay hotel with kitchens in every room, and there's a nice grocery store and a Starbucks next door. I'd stay here again.More</t>
   </si>
   <si>
-    <t>Andy J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r219574252-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>219574252</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Typical ESA hotel</t>
+  </si>
+  <si>
+    <t>This hotel chain is comparable to the similar chains they run across the country. Surprisingly, I could not find the kitchen utensils where as ESA provides it in other areas. I wanted this hotel due to the location - drivable distance to beaches, hollywood and downtown more than anything else.If you have stayed in ESA before, you know what to expect and this does not vary much. Beds were relatively good. Don't depend on the breakfast from ESA but since it was a one night stay for me, it went good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r212415934-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>212415934</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Look elsewhere</t>
+  </si>
+  <si>
+    <t>I am completely dissatisfied with the service and quality of our room here at 'Extended Stay America.' I am beating myself up because I cannot believe I paid over $300 to stay here for 2 nights, I feel robbed. I've had a much more enjoyable experience staying at a Motel 6 in the middle of Georgia than this hotel near one of America's busiest airports. As soon as I walked in the room, a horrible stench lingered the air as if a dirty wet dog was in the room prior to me entering. The linen didn't smell clean nor any of the towels in the bathroom. There were red spots on the bedsheets and dirty spots on bathroom towels. I drove from Las Vegas, luckily, I traveled with a throw blanket which I ended up using instead of the linen provided. I ended up stripping the sheets off the mattress in fear that the red spots were blood. The room needed to be vacuumed and given a thorough dusting, we found spider webs near the bottom of the A/C unit. The light fixture in between the two beds was falling off and the accent trimmings on the small kitchen counter was peeling. The worst part was the condition that the kitchen was in. Right after opening the refrigerator door, stale water dripped onto the kitchen floor which looked to be dirty/ muggy and smoky in color. In an attempt to...I am completely dissatisfied with the service and quality of our room here at 'Extended Stay America.' I am beating myself up because I cannot believe I paid over $300 to stay here for 2 nights, I feel robbed. I've had a much more enjoyable experience staying at a Motel 6 in the middle of Georgia than this hotel near one of America's busiest airports. As soon as I walked in the room, a horrible stench lingered the air as if a dirty wet dog was in the room prior to me entering. The linen didn't smell clean nor any of the towels in the bathroom. There were red spots on the bedsheets and dirty spots on bathroom towels. I drove from Las Vegas, luckily, I traveled with a throw blanket which I ended up using instead of the linen provided. I ended up stripping the sheets off the mattress in fear that the red spots were blood. The room needed to be vacuumed and given a thorough dusting, we found spider webs near the bottom of the A/C unit. The light fixture in between the two beds was falling off and the accent trimmings on the small kitchen counter was peeling. The worst part was the condition that the kitchen was in. Right after opening the refrigerator door, stale water dripped onto the kitchen floor which looked to be dirty/ muggy and smoky in color. In an attempt to get rid of the foul smell from the fridge I tried turning it on but the turn knob was broken. The warm fridge did us no good. The stove had grease around it and the pans under the burners were disgustingly dirty, the microwave was no better. The mirror outside the bathroom was dirty and the condition of the bathroom itself was filthy. The bathroom cabinet had a brown stain on it; I didn't even want to touch it. The bathtub, shower curtain, and blow dryer were filthy. I wouldn't be surprised if there were bugs inside the blow dryer. Not only did I not receive any service, I was told I had to take my dirty linen and towels into the front office to swap them out for clean ones; this was a first. The lack of customer service and room negligence is the reason why I will never book at another Extended Stay America ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I am completely dissatisfied with the service and quality of our room here at 'Extended Stay America.' I am beating myself up because I cannot believe I paid over $300 to stay here for 2 nights, I feel robbed. I've had a much more enjoyable experience staying at a Motel 6 in the middle of Georgia than this hotel near one of America's busiest airports. As soon as I walked in the room, a horrible stench lingered the air as if a dirty wet dog was in the room prior to me entering. The linen didn't smell clean nor any of the towels in the bathroom. There were red spots on the bedsheets and dirty spots on bathroom towels. I drove from Las Vegas, luckily, I traveled with a throw blanket which I ended up using instead of the linen provided. I ended up stripping the sheets off the mattress in fear that the red spots were blood. The room needed to be vacuumed and given a thorough dusting, we found spider webs near the bottom of the A/C unit. The light fixture in between the two beds was falling off and the accent trimmings on the small kitchen counter was peeling. The worst part was the condition that the kitchen was in. Right after opening the refrigerator door, stale water dripped onto the kitchen floor which looked to be dirty/ muggy and smoky in color. In an attempt to...I am completely dissatisfied with the service and quality of our room here at 'Extended Stay America.' I am beating myself up because I cannot believe I paid over $300 to stay here for 2 nights, I feel robbed. I've had a much more enjoyable experience staying at a Motel 6 in the middle of Georgia than this hotel near one of America's busiest airports. As soon as I walked in the room, a horrible stench lingered the air as if a dirty wet dog was in the room prior to me entering. The linen didn't smell clean nor any of the towels in the bathroom. There were red spots on the bedsheets and dirty spots on bathroom towels. I drove from Las Vegas, luckily, I traveled with a throw blanket which I ended up using instead of the linen provided. I ended up stripping the sheets off the mattress in fear that the red spots were blood. The room needed to be vacuumed and given a thorough dusting, we found spider webs near the bottom of the A/C unit. The light fixture in between the two beds was falling off and the accent trimmings on the small kitchen counter was peeling. The worst part was the condition that the kitchen was in. Right after opening the refrigerator door, stale water dripped onto the kitchen floor which looked to be dirty/ muggy and smoky in color. In an attempt to get rid of the foul smell from the fridge I tried turning it on but the turn knob was broken. The warm fridge did us no good. The stove had grease around it and the pans under the burners were disgustingly dirty, the microwave was no better. The mirror outside the bathroom was dirty and the condition of the bathroom itself was filthy. The bathroom cabinet had a brown stain on it; I didn't even want to touch it. The bathtub, shower curtain, and blow dryer were filthy. I wouldn't be surprised if there were bugs inside the blow dryer. Not only did I not receive any service, I was told I had to take my dirty linen and towels into the front office to swap them out for clean ones; this was a first. The lack of customer service and room negligence is the reason why I will never book at another Extended Stay America ever again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r205579139-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1324,9 +1864,6 @@
     <t>We just finished a multiple leg journey all over Southern California, and had to catch an early morning flight back home.Extended Stay has very reasonable rates an is five minutes away from LAX - perfect for dropping off the rental and hopping on our flight at 6am.That being said, we never even saw the facility during daylight hours. I can say that check in (late evening) and checkout (early morning) went off with out a hitch.The room we had was clean and comfortable. Nothing fancy, but was exactly what we needed for this final leg of our trip. We'll be back if we need to stay over near LAX again.More</t>
   </si>
   <si>
-    <t>SoLady_13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r202467593-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1345,9 +1882,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Nenya08</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r194128019-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1369,7 +1903,34 @@
     <t>I stayed here for five days and I enjoyed every minute that I spent here. Agreed, I was in my room early in the mornings and then back again only late in the nights, but it was a very pleasant stay. The hotel is in a great neighborhood- there are plenty of restaurants, supermarkets and eateries available within 5 minutes of walking distance (IHOP, Jersey Mike's subs, Carl's Jr, Habit, Ralphs etc). There is complimentary breakfast available in the mornings. (Note: there is no shuttle service from the airport to the hotel).The Mariposa Metro train station is a 10 minute walk from the hotel and buses going to LAX and Long Beach have stops very close to the hotel. It is 5 min by cab from the airport.The "downsides"? Downtown LA is an hour and a half worth of train/bus rides. I had a tough time trying to find easy, decent travel times to a lot of places such as the Getty Center, the Griffith Observatory and so on. However, I'm willing to overlook the hassle of having to travel longer to the city in view of a safe and secure stay ensured by the hotel. Will definitely recommend this to all kinds of travelers.More</t>
   </si>
   <si>
-    <t>everyshadeofblue</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r193610047-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>193610047</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Clean, convinent, great value</t>
+  </si>
+  <si>
+    <t>We were looking for FREE parking, FREE WIFI, an airport shuttle and walking distance places to eat.  We got all that, AND a small kitchen, parking no more than 50 feet from our room for a very reasonable price.  It is a fairly new property, the staff was friendly and helpful.  For the LA area- this was a good medium between really cheap motels and the high end resort stuff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r190521121-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>190521121</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Find another place</t>
+  </si>
+  <si>
+    <t>rooms are small and beds are hard as rocks. kitchen supplies less than adequate even for 2 people.  my location was next to Ralphs and very noisy. grab n go breakfast is a joke.no maid service unless you pay for it.have to walk all the way up to the lobby which is far away just to get new towels or toilet paper.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r179413625-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1390,9 +1951,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Rick M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r176784168-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1411,9 +1969,6 @@
     <t>If your in the El Segundo stay here! The bus line is right out front and if you pay $1.50 to ride to the bus line station about 2 miles away you can take a shuttle for free to any area of LAX. The cabbies charge $19.00 for the same trip. It took us less than an hour to get to the UCLA Medical Center which is quicker than many people can drive it themselves if you take the express line. The whole bus ride is the number 6 route and it costs $1.00 from the station to Westwood.El Segundo has no beach at all. Just a power plant and some sand. There is no way to buy even a water and only one spot WAY down the beach with facilities.More</t>
   </si>
   <si>
-    <t>silentak1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r174394219-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1435,7 +1990,40 @@
     <t>The check-in lady was just a pleasure to deal with.  All went well, she made me feel at home.  The room was pretty nice, everything worked fine.  The bed did squeak and wasn't the most comfortable, but it was fine.  It's neat that the kitchenette includes utensils, pots and pans, and a drinking water filter attached to the faucet.  You will need to bring your own shampoo, conditioner, and dish washing fluids, etc.  The only toilettre provided is soap.  There's a Ralphs literally behind so you can buy anything you need there.  Few food places across the street.  1.5 miles from LAX... but you can't hear the airplanes.  Free parking, easy access to the hotel.More</t>
   </si>
   <si>
-    <t>asfran100</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r173517788-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>173517788</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Worst stay on my trip</t>
+  </si>
+  <si>
+    <t>I booked through Priceline as travelling with 2 so they only gave me one bed.  I had to upgrade $10 a day for two full beds.  My room was changed twice after lugging all my luggage upstairs (no elevator). My room smelled so bad I bad I bought air freshener across the street at Ralphs.  There were zero toiletries in the room and when I called to ask for hand soap to wash my hands, I was told I needed to come to the desk to get it.  The front desk was in a separate building a bit away.  I also called and asked if they had a ice machine and was told that there was a grocery store next door or that I could make it.  I booked for 2 nights (regrettably).  The light breakfast is a joke, hardly worth the walk to the office.  The beds were awful and there was zero customer service.  It is a do-it-yourself kinda place, which I wouldn't mind so much if the place had ANY amenities at all or some cleanliness to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked through Priceline as travelling with 2 so they only gave me one bed.  I had to upgrade $10 a day for two full beds.  My room was changed twice after lugging all my luggage upstairs (no elevator). My room smelled so bad I bad I bought air freshener across the street at Ralphs.  There were zero toiletries in the room and when I called to ask for hand soap to wash my hands, I was told I needed to come to the desk to get it.  The front desk was in a separate building a bit away.  I also called and asked if they had a ice machine and was told that there was a grocery store next door or that I could make it.  I booked for 2 nights (regrettably).  The light breakfast is a joke, hardly worth the walk to the office.  The beds were awful and there was zero customer service.  It is a do-it-yourself kinda place, which I wouldn't mind so much if the place had ANY amenities at all or some cleanliness to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r170200560-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>170200560</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>our stay at Extended Stay America</t>
+  </si>
+  <si>
+    <t>Extended stay america on e.mariposa ave el segundo,  it's location was great for all the activities we had planned.  My grandsons and I were there for a 3-night stay We found our deluxe king suite very comfortable and clean.  We enjoyed having the mini kitchen,even though I did not cook,  plenty of restaurants and shops near by, great having a grocery store right next door. Thank You to the front desk personel, they were great, everyone I encounter that works there was great!!  We loved our stay there.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r168126525-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1453,12 +2041,6 @@
     <t>stay one night , and found this very good. first the rooms are updated with nice color scheme the staff very friendly, love the location right next to supermarket and many shops.the drawl back no pool, no tissues 'and no free breakfast  did have a mini kitchen.</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
-    <t>RRowley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r164285759-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1477,9 +2059,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Aaronh1212</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r156686869-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1504,7 +2083,49 @@
     <t>Make a long story short. I was continually billed incorrectly. Had funds removed from my account without being notified (several times). Brand new boots stolen from room and told basically I was a liar. Rates are too high and they will raise them every chance they get without any notice!! I will return to the area in a couple months and will not be stating here!!  My co workers will be warned. More</t>
   </si>
   <si>
-    <t>Montel R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r151845315-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>151845315</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>Convienent location, right off highway, next to supermarket</t>
+  </si>
+  <si>
+    <t>Comfortable bed , rooms have kitchette Close to airport, lot of fast food in walking distance.  Room pleasant, not the Ritz, but rate cheap for being so close to airport.  No shuttle,  but can was quick........... .........I'd stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded February 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2013</t>
+  </si>
+  <si>
+    <t>Comfortable bed , rooms have kitchette Close to airport, lot of fast food in walking distance.  Room pleasant, not the Ritz, but rate cheap for being so close to airport.  No shuttle,  but can was quick........... .........I'd stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r150506255-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>150506255</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service</t>
+  </si>
+  <si>
+    <t>I recently had the pleasure of staying at the El Segundo site for several days while on business.  I say pleasure as the customer service I received from the young man at the desk to the hotel manager was outstanding.  Minutes after I settled into my room, the telephone rang and it was the desk ensuring I found everything satisfactory with the room.  Realizing that I forgot to pack a few toiletry items (shaving cream), I inquired about a local store.  The man asked if I used any specific brand.  I answered wondering why.  He said it would be taken care of for me.  Within an hour, there was knock on my door and the manager handed me my favorite shaving cream.  He refused payment.  He explained it was there way of ensuring customer satisfaction.  I enjoyed my stay and recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I recently had the pleasure of staying at the El Segundo site for several days while on business.  I say pleasure as the customer service I received from the young man at the desk to the hotel manager was outstanding.  Minutes after I settled into my room, the telephone rang and it was the desk ensuring I found everything satisfactory with the room.  Realizing that I forgot to pack a few toiletry items (shaving cream), I inquired about a local store.  The man asked if I used any specific brand.  I answered wondering why.  He said it would be taken care of for me.  Within an hour, there was knock on my door and the manager handed me my favorite shaving cream.  He refused payment.  He explained it was there way of ensuring customer satisfaction.  I enjoyed my stay and recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r149283856-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1534,9 +2155,6 @@
     <t>Hello there,I stayed at this hotel for the second time and my experience was amazing.  The staff treat each of the guests wonderful.  The hotel was extremely clean, and very attentive to my needs.  I would not recommend staying anywhere else if you are looking for a hotel near the LAX Airport.  I am very pleased that I stayed at the hotel and will do so each and everytime I visit the LA area.  Way to go!!!!More</t>
   </si>
   <si>
-    <t>E S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r148090798-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1564,9 +2182,6 @@
     <t>Visiting Los Angeles on vacation, I received a great Priceline rate for Extended Stay America.  I am always initally leary when it comes to the hotels that accept my offer, but the location was prime, the rooms were clean and pretty up to date, clean gounds, parking was easy and check in and out was a breeze.  I was initially in a room on the first floor, but noticed I was near a high traffic (walking) area.  I asked to be moved to a second floor room.  The manager was polite and moved me without hesitation.  The hotel is just a walk across the parking lot to a grocery store, Starbucks, Quiznos, etc and there are many restaurants and even a cleaners right across the street.  I really enjoyed the fact that I was close to the beaches and when I wanted to venture into the city (Los Angeles), the freeway(s) were very close. I am a stickler as it relates to my travel accommodations and i definitely recommend this hotel.More</t>
   </si>
   <si>
-    <t>334JimW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r145082094-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1591,7 +2206,58 @@
     <t>I paid $89 for a mediocre at best room with zero toiletries, the police coming in with a bullhorn to kick out 2 troublemaking ladies, and the check-in process that was the worst.  The location is OK and as I had a difficult time finding a room I thought this would work.  But Never again!!More</t>
   </si>
   <si>
-    <t>ykeh</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r139848360-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>139848360</t>
+  </si>
+  <si>
+    <t>09/09/2012</t>
+  </si>
+  <si>
+    <t>Not as Good as Expected</t>
+  </si>
+  <si>
+    <t>The rate I got on Priceline was wonderful, but.... I've stayed in Extended Stay hotels before;  this property has issues. The Wi-Fi drops on a regular basis on weekends, the housekeeping is far from the best, the bathroom exhaust fan is inadequate, there is an odor coming from the A/C that requires the fan to run constantly. When I turn it off, the room is both stuffy and smelly. The good is access to public transportation: the bus from the airport stops in front, and the Green Line metro is a 10-minute walk down Mariposa. A good grocery store is on the same block, there are places to dine across the street, more places to dine and a pharmacy 5 minutes away by foot. I only give it 2 stars because the housekeeping staff does not dust inside the lamps-lots of dust there, and there is mold in the bathroom; probably due to the bad exhaust fan. The mold is under the tub's soap holder.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded September 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2012</t>
+  </si>
+  <si>
+    <t>The rate I got on Priceline was wonderful, but.... I've stayed in Extended Stay hotels before;  this property has issues. The Wi-Fi drops on a regular basis on weekends, the housekeeping is far from the best, the bathroom exhaust fan is inadequate, there is an odor coming from the A/C that requires the fan to run constantly. When I turn it off, the room is both stuffy and smelly. The good is access to public transportation: the bus from the airport stops in front, and the Green Line metro is a 10-minute walk down Mariposa. A good grocery store is on the same block, there are places to dine across the street, more places to dine and a pharmacy 5 minutes away by foot. I only give it 2 stars because the housekeeping staff does not dust inside the lamps-lots of dust there, and there is mold in the bathroom; probably due to the bad exhaust fan. The mold is under the tub's soap holder.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r137671056-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>137671056</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here if you are a business traveler</t>
+  </si>
+  <si>
+    <t>Primarily intended for long term stays, e.g., short term housing.  Place was dirty and old.  Because of the kitchen, it smelled. I didn't feel safe. No shampoo and had to wait 20 minutes until the front desk was available.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport - El Segundo, responded to this reviewResponded August 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2012</t>
+  </si>
+  <si>
+    <t>Primarily intended for long term stays, e.g., short term housing.  Place was dirty and old.  Because of the kitchen, it smelled. I didn't feel safe. No shampoo and had to wait 20 minutes until the front desk was available.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r132408771-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -1619,9 +2285,6 @@
   </si>
   <si>
     <t>I booked a room for relatives visiting from another country.  The location and accomodations were excellent. Near LAX, tours available for pick-up. The premises were newly remodeled clean, quiet and safe.  There's a 24 hr grocery next door for added convenience.More</t>
-  </si>
-  <si>
-    <t>T K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d225788-r130066692-Extended_Stay_America_Los_Angeles_LAX_Airport_El_Segundo-El_Segundo_California.html</t>
@@ -2147,177 +2810,181 @@
       <c r="A2" t="n">
         <v>35189</v>
       </c>
-      <c r="B2" t="n">
-        <v>177653</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35189</v>
       </c>
-      <c r="B3" t="n">
-        <v>177654</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" t="s">
+      <c r="X3" t="s">
         <v>65</v>
       </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35189</v>
       </c>
-      <c r="B4" t="n">
-        <v>177655</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2327,66 +2994,62 @@
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35189</v>
       </c>
-      <c r="B5" t="n">
-        <v>177656</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>86</v>
-      </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2398,60 +3061,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35189</v>
       </c>
-      <c r="B6" t="n">
-        <v>177657</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2463,209 +3122,185 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35189</v>
       </c>
-      <c r="B7" t="n">
-        <v>48390</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35189</v>
       </c>
-      <c r="B8" t="n">
-        <v>7997</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35189</v>
       </c>
-      <c r="B9" t="n">
-        <v>177658</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
@@ -2674,7 +3309,7 @@
         <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2684,754 +3319,724 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35189</v>
       </c>
-      <c r="B10" t="n">
-        <v>177659</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
         <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35189</v>
       </c>
-      <c r="B11" t="n">
-        <v>177660</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35189</v>
       </c>
-      <c r="B12" t="n">
-        <v>177661</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35189</v>
       </c>
-      <c r="B13" t="n">
-        <v>177662</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35189</v>
       </c>
-      <c r="B14" t="n">
-        <v>177663</v>
-      </c>
-      <c r="C14" t="s">
-        <v>167</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35189</v>
       </c>
-      <c r="B15" t="n">
-        <v>177664</v>
-      </c>
-      <c r="C15" t="s">
-        <v>177</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35189</v>
       </c>
-      <c r="B16" t="n">
-        <v>177665</v>
-      </c>
-      <c r="C16" t="s">
-        <v>187</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35189</v>
       </c>
-      <c r="B17" t="n">
-        <v>177666</v>
-      </c>
-      <c r="C17" t="s">
-        <v>197</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35189</v>
       </c>
-      <c r="B18" t="n">
-        <v>177667</v>
-      </c>
-      <c r="C18" t="s">
-        <v>206</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35189</v>
       </c>
-      <c r="B19" t="n">
-        <v>177668</v>
-      </c>
-      <c r="C19" t="s">
-        <v>213</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35189</v>
       </c>
-      <c r="B20" t="n">
-        <v>33619</v>
-      </c>
-      <c r="C20" t="s">
-        <v>222</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3443,68 +4048,68 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35189</v>
       </c>
-      <c r="B21" t="n">
-        <v>177669</v>
-      </c>
-      <c r="C21" t="s">
-        <v>232</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3514,331 +4119,337 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35189</v>
       </c>
-      <c r="B22" t="n">
-        <v>8300</v>
-      </c>
-      <c r="C22" t="s">
-        <v>241</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>220</v>
+      </c>
+      <c r="X22" t="s">
+        <v>221</v>
+      </c>
       <c r="Y22" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35189</v>
       </c>
-      <c r="B23" t="n">
-        <v>177670</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
       <c r="Y23" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35189</v>
       </c>
-      <c r="B24" t="n">
-        <v>6280</v>
-      </c>
-      <c r="C24" t="s">
-        <v>254</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35189</v>
       </c>
-      <c r="B25" t="n">
-        <v>177671</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="N25" t="s">
-        <v>253</v>
-      </c>
-      <c r="O25" t="s">
-        <v>87</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
         <v>3</v>
       </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>245</v>
+      </c>
+      <c r="X25" t="s">
+        <v>246</v>
+      </c>
       <c r="Y25" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35189</v>
       </c>
-      <c r="B26" t="n">
-        <v>177672</v>
-      </c>
-      <c r="C26" t="s">
-        <v>270</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>3</v>
@@ -3846,332 +4457,304 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
       <c r="Y26" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35189</v>
       </c>
-      <c r="B27" t="n">
-        <v>6244</v>
-      </c>
-      <c r="C27" t="s">
-        <v>278</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="X27" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Y27" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35189</v>
       </c>
-      <c r="B28" t="n">
-        <v>177673</v>
-      </c>
-      <c r="C28" t="s">
-        <v>288</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="X28" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="Y28" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35189</v>
       </c>
-      <c r="B29" t="n">
-        <v>177674</v>
-      </c>
-      <c r="C29" t="s">
-        <v>297</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>304</v>
-      </c>
-      <c r="X29" t="s">
-        <v>305</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35189</v>
       </c>
-      <c r="B30" t="n">
-        <v>177675</v>
-      </c>
-      <c r="C30" t="s">
-        <v>307</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>314</v>
-      </c>
-      <c r="X30" t="s">
-        <v>315</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35189</v>
       </c>
-      <c r="B31" t="n">
-        <v>177676</v>
-      </c>
-      <c r="C31" t="s">
-        <v>317</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>313</v>
-      </c>
-      <c r="O31" t="s">
-        <v>76</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -4181,132 +4764,122 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
       <c r="Y31" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35189</v>
       </c>
-      <c r="B32" t="n">
-        <v>177677</v>
-      </c>
-      <c r="C32" t="s">
-        <v>323</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="J32" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="X32" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35189</v>
       </c>
-      <c r="B33" t="n">
-        <v>177678</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
@@ -4318,125 +4891,123 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="X33" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="Y33" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35189</v>
       </c>
-      <c r="B34" t="n">
-        <v>10883</v>
-      </c>
-      <c r="C34" t="s">
-        <v>343</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35189</v>
       </c>
-      <c r="B35" t="n">
-        <v>177679</v>
-      </c>
-      <c r="C35" t="s">
-        <v>352</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="J35" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4447,61 +5018,53 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>359</v>
-      </c>
-      <c r="X35" t="s">
-        <v>360</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35189</v>
       </c>
-      <c r="B36" t="n">
-        <v>177680</v>
-      </c>
-      <c r="C36" t="s">
-        <v>362</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4513,340 +5076,318 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35189</v>
       </c>
-      <c r="B37" t="n">
-        <v>47394</v>
-      </c>
-      <c r="C37" t="s">
-        <v>372</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35189</v>
       </c>
-      <c r="B38" t="n">
-        <v>177681</v>
-      </c>
-      <c r="C38" t="s">
-        <v>381</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="J38" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35189</v>
       </c>
-      <c r="B39" t="n">
-        <v>177682</v>
-      </c>
-      <c r="C39" t="s">
-        <v>388</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="J39" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>350</v>
+      </c>
+      <c r="X39" t="s">
+        <v>351</v>
+      </c>
       <c r="Y39" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35189</v>
       </c>
-      <c r="B40" t="n">
-        <v>177683</v>
-      </c>
-      <c r="C40" t="s">
-        <v>395</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="J40" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="K40" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="O40" t="s">
-        <v>76</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>402</v>
-      </c>
-      <c r="X40" t="s">
-        <v>403</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35189</v>
       </c>
-      <c r="B41" t="n">
-        <v>177684</v>
-      </c>
-      <c r="C41" t="s">
-        <v>405</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="K41" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4854,63 +5395,57 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35189</v>
       </c>
-      <c r="B42" t="n">
-        <v>177685</v>
-      </c>
-      <c r="C42" t="s">
-        <v>412</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="K42" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4918,69 +5453,69 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>369</v>
+      </c>
+      <c r="X42" t="s">
+        <v>370</v>
+      </c>
       <c r="Y42" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35189</v>
       </c>
-      <c r="B43" t="n">
-        <v>41399</v>
-      </c>
-      <c r="C43" t="s">
-        <v>419</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="J43" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4988,212 +5523,176 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35189</v>
       </c>
-      <c r="B44" t="n">
-        <v>177686</v>
-      </c>
-      <c r="C44" t="s">
-        <v>426</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>383</v>
+      </c>
+      <c r="X44" t="s">
+        <v>384</v>
+      </c>
       <c r="Y44" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35189</v>
       </c>
-      <c r="B45" t="n">
-        <v>177687</v>
-      </c>
-      <c r="C45" t="s">
-        <v>434</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="J45" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>440</v>
-      </c>
-      <c r="O45" t="s">
-        <v>116</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35189</v>
       </c>
-      <c r="B46" t="n">
-        <v>177688</v>
-      </c>
-      <c r="C46" t="s">
-        <v>441</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="J46" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="K46" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="L46" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="O46" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5201,793 +5700,683 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35189</v>
       </c>
-      <c r="B47" t="n">
-        <v>63007</v>
-      </c>
-      <c r="C47" t="s">
-        <v>449</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="J47" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="K47" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>405</v>
+      </c>
+      <c r="X47" t="s">
+        <v>406</v>
+      </c>
       <c r="Y47" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35189</v>
       </c>
-      <c r="B48" t="n">
-        <v>14861</v>
-      </c>
-      <c r="C48" t="s">
-        <v>456</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="J48" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="K48" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>3</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>413</v>
+      </c>
+      <c r="X48" t="s">
+        <v>414</v>
+      </c>
       <c r="Y48" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35189</v>
       </c>
-      <c r="B49" t="n">
-        <v>177689</v>
-      </c>
-      <c r="C49" t="s">
-        <v>463</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="J49" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="K49" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="O49" t="s">
-        <v>116</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>422</v>
+      </c>
+      <c r="X49" t="s">
+        <v>423</v>
+      </c>
       <c r="Y49" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35189</v>
       </c>
-      <c r="B50" t="n">
-        <v>177690</v>
-      </c>
-      <c r="C50" t="s">
-        <v>471</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="K50" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
-      <c r="N50" t="s">
-        <v>477</v>
-      </c>
-      <c r="O50" t="s">
-        <v>54</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35189</v>
       </c>
-      <c r="B51" t="n">
-        <v>177691</v>
-      </c>
-      <c r="C51" t="s">
-        <v>478</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="K51" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="L51" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="O51" t="s">
-        <v>65</v>
-      </c>
-      <c r="P51" t="n">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
         <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>436</v>
+      </c>
+      <c r="X51" t="s">
+        <v>437</v>
+      </c>
       <c r="Y51" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35189</v>
       </c>
-      <c r="B52" t="n">
-        <v>177692</v>
-      </c>
-      <c r="C52" t="s">
-        <v>485</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="J52" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="K52" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="L52" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>444</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="X52" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="Y52" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35189</v>
       </c>
-      <c r="B53" t="n">
-        <v>177693</v>
-      </c>
-      <c r="C53" t="s">
-        <v>494</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="O53" t="s">
-        <v>116</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>501</v>
-      </c>
-      <c r="X53" t="s">
-        <v>502</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35189</v>
       </c>
-      <c r="B54" t="n">
-        <v>177694</v>
-      </c>
-      <c r="C54" t="s">
-        <v>504</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="O54" t="s">
-        <v>116</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>511</v>
-      </c>
-      <c r="X54" t="s">
-        <v>512</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35189</v>
       </c>
-      <c r="B55" t="n">
-        <v>177695</v>
-      </c>
-      <c r="C55" t="s">
-        <v>514</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="J55" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="K55" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="L55" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="O55" t="s">
-        <v>116</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="n">
-        <v>2</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="X55" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="Y55" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35189</v>
       </c>
-      <c r="B56" t="n">
-        <v>177696</v>
-      </c>
-      <c r="C56" t="s">
-        <v>523</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="J56" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="K56" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="X56" t="s">
-        <v>531</v>
+        <v>473</v>
       </c>
       <c r="Y56" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35189</v>
       </c>
-      <c r="B57" t="n">
-        <v>47455</v>
-      </c>
-      <c r="C57" t="s">
-        <v>533</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>535</v>
+        <v>476</v>
       </c>
       <c r="J57" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="K57" t="s">
-        <v>537</v>
+        <v>478</v>
       </c>
       <c r="L57" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>539</v>
+        <v>421</v>
       </c>
       <c r="O57" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>4</v>
@@ -5996,13 +6385,2647 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
+        <v>480</v>
+      </c>
+      <c r="X57" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>483</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>484</v>
+      </c>
+      <c r="J58" t="s">
+        <v>485</v>
+      </c>
+      <c r="K58" t="s">
+        <v>486</v>
+      </c>
+      <c r="L58" t="s">
+        <v>487</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>421</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>488</v>
+      </c>
+      <c r="X58" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>491</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>492</v>
+      </c>
+      <c r="J59" t="s">
+        <v>493</v>
+      </c>
+      <c r="K59" t="s">
+        <v>494</v>
+      </c>
+      <c r="L59" t="s">
+        <v>495</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>496</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>497</v>
+      </c>
+      <c r="X59" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>500</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>501</v>
+      </c>
+      <c r="J60" t="s">
+        <v>502</v>
+      </c>
+      <c r="K60" t="s">
+        <v>503</v>
+      </c>
+      <c r="L60" t="s">
+        <v>504</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>496</v>
+      </c>
+      <c r="O60" t="s">
+        <v>109</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>505</v>
+      </c>
+      <c r="X60" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>508</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>509</v>
+      </c>
+      <c r="J61" t="s">
+        <v>502</v>
+      </c>
+      <c r="K61" t="s">
+        <v>510</v>
+      </c>
+      <c r="L61" t="s">
+        <v>511</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>496</v>
+      </c>
+      <c r="O61" t="s">
+        <v>99</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>505</v>
+      </c>
+      <c r="X61" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>513</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>514</v>
+      </c>
+      <c r="J62" t="s">
+        <v>515</v>
+      </c>
+      <c r="K62" t="s">
+        <v>516</v>
+      </c>
+      <c r="L62" t="s">
+        <v>517</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>518</v>
+      </c>
+      <c r="O62" t="s">
+        <v>109</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>519</v>
+      </c>
+      <c r="X62" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>522</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>523</v>
+      </c>
+      <c r="J63" t="s">
+        <v>524</v>
+      </c>
+      <c r="K63" t="s">
+        <v>525</v>
+      </c>
+      <c r="L63" t="s">
+        <v>526</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>518</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>527</v>
+      </c>
+      <c r="X63" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
         <v>530</v>
       </c>
-      <c r="X57" t="s">
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
         <v>531</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="J64" t="s">
+        <v>532</v>
+      </c>
+      <c r="K64" t="s">
+        <v>533</v>
+      </c>
+      <c r="L64" t="s">
+        <v>534</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>535</v>
+      </c>
+      <c r="X64" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>538</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>539</v>
+      </c>
+      <c r="J65" t="s">
         <v>540</v>
+      </c>
+      <c r="K65" t="s">
+        <v>541</v>
+      </c>
+      <c r="L65" t="s">
+        <v>542</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>543</v>
+      </c>
+      <c r="O65" t="s">
+        <v>109</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>535</v>
+      </c>
+      <c r="X65" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>545</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>546</v>
+      </c>
+      <c r="J66" t="s">
+        <v>547</v>
+      </c>
+      <c r="K66" t="s">
+        <v>548</v>
+      </c>
+      <c r="L66" t="s">
+        <v>549</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>543</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>550</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>551</v>
+      </c>
+      <c r="J67" t="s">
+        <v>552</v>
+      </c>
+      <c r="K67" t="s">
+        <v>553</v>
+      </c>
+      <c r="L67" t="s">
+        <v>554</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>543</v>
+      </c>
+      <c r="O67" t="s">
+        <v>99</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>556</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>557</v>
+      </c>
+      <c r="J68" t="s">
+        <v>558</v>
+      </c>
+      <c r="K68" t="s">
+        <v>559</v>
+      </c>
+      <c r="L68" t="s">
+        <v>560</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>561</v>
+      </c>
+      <c r="O68" t="s">
+        <v>109</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>562</v>
+      </c>
+      <c r="X68" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>565</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>566</v>
+      </c>
+      <c r="J69" t="s">
+        <v>567</v>
+      </c>
+      <c r="K69" t="s">
+        <v>568</v>
+      </c>
+      <c r="L69" t="s">
+        <v>569</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>561</v>
+      </c>
+      <c r="O69" t="s">
+        <v>99</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>570</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>571</v>
+      </c>
+      <c r="J70" t="s">
+        <v>572</v>
+      </c>
+      <c r="K70" t="s">
+        <v>573</v>
+      </c>
+      <c r="L70" t="s">
+        <v>574</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>575</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>576</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>577</v>
+      </c>
+      <c r="J71" t="s">
+        <v>578</v>
+      </c>
+      <c r="K71" t="s">
+        <v>579</v>
+      </c>
+      <c r="L71" t="s">
+        <v>580</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>575</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>581</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>582</v>
+      </c>
+      <c r="J72" t="s">
+        <v>583</v>
+      </c>
+      <c r="K72" t="s">
+        <v>584</v>
+      </c>
+      <c r="L72" t="s">
+        <v>585</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>586</v>
+      </c>
+      <c r="O72" t="s">
+        <v>109</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>587</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>588</v>
+      </c>
+      <c r="J73" t="s">
+        <v>589</v>
+      </c>
+      <c r="K73" t="s">
+        <v>590</v>
+      </c>
+      <c r="L73" t="s">
+        <v>591</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>586</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>593</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>594</v>
+      </c>
+      <c r="J74" t="s">
+        <v>595</v>
+      </c>
+      <c r="K74" t="s">
+        <v>596</v>
+      </c>
+      <c r="L74" t="s">
+        <v>597</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>586</v>
+      </c>
+      <c r="O74" t="s">
+        <v>99</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>598</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>599</v>
+      </c>
+      <c r="J75" t="s">
+        <v>600</v>
+      </c>
+      <c r="K75" t="s">
+        <v>601</v>
+      </c>
+      <c r="L75" t="s">
+        <v>602</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>603</v>
+      </c>
+      <c r="O75" t="s">
+        <v>99</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>605</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J76" t="s">
+        <v>607</v>
+      </c>
+      <c r="K76" t="s">
+        <v>608</v>
+      </c>
+      <c r="L76" t="s">
+        <v>609</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>610</v>
+      </c>
+      <c r="O76" t="s">
+        <v>99</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>612</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>613</v>
+      </c>
+      <c r="J77" t="s">
+        <v>614</v>
+      </c>
+      <c r="K77" t="s">
+        <v>615</v>
+      </c>
+      <c r="L77" t="s">
+        <v>616</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>617</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>618</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>619</v>
+      </c>
+      <c r="J78" t="s">
+        <v>620</v>
+      </c>
+      <c r="K78" t="s">
+        <v>621</v>
+      </c>
+      <c r="L78" t="s">
+        <v>622</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>623</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>625</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>626</v>
+      </c>
+      <c r="J79" t="s">
+        <v>627</v>
+      </c>
+      <c r="K79" t="s">
+        <v>628</v>
+      </c>
+      <c r="L79" t="s">
+        <v>629</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>623</v>
+      </c>
+      <c r="O79" t="s">
+        <v>99</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>630</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>631</v>
+      </c>
+      <c r="J80" t="s">
+        <v>632</v>
+      </c>
+      <c r="K80" t="s">
+        <v>633</v>
+      </c>
+      <c r="L80" t="s">
+        <v>634</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>635</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>636</v>
+      </c>
+      <c r="J81" t="s">
+        <v>637</v>
+      </c>
+      <c r="K81" t="s">
+        <v>638</v>
+      </c>
+      <c r="L81" t="s">
+        <v>639</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>640</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>641</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>642</v>
+      </c>
+      <c r="J82" t="s">
+        <v>643</v>
+      </c>
+      <c r="K82" t="s">
+        <v>644</v>
+      </c>
+      <c r="L82" t="s">
+        <v>645</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>640</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>648</v>
+      </c>
+      <c r="J83" t="s">
+        <v>649</v>
+      </c>
+      <c r="K83" t="s">
+        <v>650</v>
+      </c>
+      <c r="L83" t="s">
+        <v>651</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>652</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>654</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>655</v>
+      </c>
+      <c r="J84" t="s">
+        <v>656</v>
+      </c>
+      <c r="K84" t="s">
+        <v>657</v>
+      </c>
+      <c r="L84" t="s">
+        <v>658</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>652</v>
+      </c>
+      <c r="O84" t="s">
+        <v>99</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>660</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>661</v>
+      </c>
+      <c r="J85" t="s">
+        <v>662</v>
+      </c>
+      <c r="K85" t="s">
+        <v>663</v>
+      </c>
+      <c r="L85" t="s">
+        <v>664</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>665</v>
+      </c>
+      <c r="O85" t="s">
+        <v>99</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>666</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>667</v>
+      </c>
+      <c r="J86" t="s">
+        <v>668</v>
+      </c>
+      <c r="K86" t="s">
+        <v>669</v>
+      </c>
+      <c r="L86" t="s">
+        <v>670</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>665</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>671</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>672</v>
+      </c>
+      <c r="J87" t="s">
+        <v>673</v>
+      </c>
+      <c r="K87" t="s">
+        <v>674</v>
+      </c>
+      <c r="L87" t="s">
+        <v>675</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>676</v>
+      </c>
+      <c r="O87" t="s">
+        <v>99</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>677</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>678</v>
+      </c>
+      <c r="J88" t="s">
+        <v>679</v>
+      </c>
+      <c r="K88" t="s">
+        <v>680</v>
+      </c>
+      <c r="L88" t="s">
+        <v>681</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>682</v>
+      </c>
+      <c r="X88" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>685</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>686</v>
+      </c>
+      <c r="J89" t="s">
+        <v>687</v>
+      </c>
+      <c r="K89" t="s">
+        <v>688</v>
+      </c>
+      <c r="L89" t="s">
+        <v>689</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>690</v>
+      </c>
+      <c r="X89" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>693</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>694</v>
+      </c>
+      <c r="J90" t="s">
+        <v>695</v>
+      </c>
+      <c r="K90" t="s">
+        <v>696</v>
+      </c>
+      <c r="L90" t="s">
+        <v>697</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>698</v>
+      </c>
+      <c r="O90" t="s">
+        <v>109</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>690</v>
+      </c>
+      <c r="X90" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>700</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>701</v>
+      </c>
+      <c r="J91" t="s">
+        <v>702</v>
+      </c>
+      <c r="K91" t="s">
+        <v>703</v>
+      </c>
+      <c r="L91" t="s">
+        <v>704</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>705</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>706</v>
+      </c>
+      <c r="X91" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>709</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>710</v>
+      </c>
+      <c r="J92" t="s">
+        <v>711</v>
+      </c>
+      <c r="K92" t="s">
+        <v>712</v>
+      </c>
+      <c r="L92" t="s">
+        <v>713</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>714</v>
+      </c>
+      <c r="O92" t="s">
+        <v>63</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>715</v>
+      </c>
+      <c r="X92" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>718</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>719</v>
+      </c>
+      <c r="J93" t="s">
+        <v>720</v>
+      </c>
+      <c r="K93" t="s">
+        <v>721</v>
+      </c>
+      <c r="L93" t="s">
+        <v>722</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>714</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>723</v>
+      </c>
+      <c r="X93" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>726</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>727</v>
+      </c>
+      <c r="J94" t="s">
+        <v>728</v>
+      </c>
+      <c r="K94" t="s">
+        <v>729</v>
+      </c>
+      <c r="L94" t="s">
+        <v>730</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>731</v>
+      </c>
+      <c r="O94" t="s">
+        <v>63</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>732</v>
+      </c>
+      <c r="X94" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>735</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>736</v>
+      </c>
+      <c r="J95" t="s">
+        <v>737</v>
+      </c>
+      <c r="K95" t="s">
+        <v>738</v>
+      </c>
+      <c r="L95" t="s">
+        <v>739</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>740</v>
+      </c>
+      <c r="O95" t="s">
+        <v>109</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>741</v>
+      </c>
+      <c r="X95" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>744</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>745</v>
+      </c>
+      <c r="J96" t="s">
+        <v>746</v>
+      </c>
+      <c r="K96" t="s">
+        <v>747</v>
+      </c>
+      <c r="L96" t="s">
+        <v>748</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>749</v>
+      </c>
+      <c r="O96" t="s">
+        <v>99</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>750</v>
+      </c>
+      <c r="X96" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>35189</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>753</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>754</v>
+      </c>
+      <c r="J97" t="s">
+        <v>755</v>
+      </c>
+      <c r="K97" t="s">
+        <v>756</v>
+      </c>
+      <c r="L97" t="s">
+        <v>757</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>758</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>750</v>
+      </c>
+      <c r="X97" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
